--- a/docs/UNCEM_AS.xlsx
+++ b/docs/UNCEM_AS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="3300"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="3300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Madonie_GPP" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
   <si>
     <t>quercus_deciduous</t>
   </si>
@@ -435,6 +435,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,24 +465,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -494,7 +494,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -503,8 +502,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6862914736492432E-2"/>
-          <c:y val="0.25973388743073716"/>
-          <c:w val="0.69938650575492822"/>
+          <c:y val="0.25973388743073711"/>
+          <c:w val="0.699386505754928"/>
           <c:h val="0.60113808690580361"/>
         </c:manualLayout>
       </c:layout>
@@ -847,25 +846,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100340864"/>
-        <c:axId val="100342400"/>
+        <c:axId val="143389824"/>
+        <c:axId val="143391360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100340864"/>
+        <c:axId val="143389824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100342400"/>
+        <c:crossAx val="143391360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100342400"/>
+        <c:axId val="143391360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -873,20 +872,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100340864"/>
+        <c:crossAx val="143389824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1329,23 +1327,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="109323392"/>
-        <c:axId val="109324928"/>
+        <c:axId val="150998016"/>
+        <c:axId val="151003904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="109323392"/>
+        <c:axId val="150998016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109324928"/>
+        <c:crossAx val="151003904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="109324928"/>
+        <c:axId val="151003904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1351,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109323392"/>
+        <c:crossAx val="150998016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1366,7 +1364,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1627,23 +1625,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="97427840"/>
-        <c:axId val="86915712"/>
+        <c:axId val="151033728"/>
+        <c:axId val="151035264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97427840"/>
+        <c:axId val="151033728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86915712"/>
+        <c:crossAx val="151035264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86915712"/>
+        <c:axId val="151035264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,7 +1649,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97427840"/>
+        <c:crossAx val="151033728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1664,7 +1662,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1978,23 +1976,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="90468736"/>
-        <c:axId val="97255424"/>
+        <c:axId val="151196416"/>
+        <c:axId val="151197952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90468736"/>
+        <c:axId val="151196416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97255424"/>
+        <c:crossAx val="151197952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97255424"/>
+        <c:axId val="151197952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2002,7 +2000,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90468736"/>
+        <c:crossAx val="151196416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2015,7 +2013,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2041,7 +2039,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2473,12 +2470,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:dLbls/>
-        <c:axId val="182059008"/>
-        <c:axId val="181494144"/>
+        <c:axId val="151241088"/>
+        <c:axId val="151242624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="182059008"/>
+        <c:axId val="151241088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2020"/>
@@ -2487,12 +2483,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181494144"/>
+        <c:crossAx val="151242624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181494144"/>
+        <c:axId val="151242624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,3048 +2496,25 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182059008"/>
+        <c:crossAx val="151241088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>GPP-MADONIE_30m_2002-2009_20121211181818_output</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Titerno_GPP!$C$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_deciduous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Titerno_GPP!$D$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Titerno_GPP!$C$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_evergreen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Titerno_GPP!$D$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1541.06</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1790.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1893.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1331.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1376.09</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1348.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1316.55</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1401.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Titerno_GPP!$C$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fagus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Titerno_GPP!$D$8:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Titerno_GPP!$C$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>castanea</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Titerno_GPP!$D$9:$K$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="109443328"/>
-        <c:axId val="109453312"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="109443328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109453312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109453312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>GPP gC/(m^2yr)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109443328"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.0346888062603302E-2"/>
-          <c:y val="0.21795166229221349"/>
-          <c:w val="0.82060868693496669"/>
-          <c:h val="0.6892166083406237"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Rg_f</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$C$2:$C$13,Dati_cella_alessioCMCC!$J$2:$J$13,Dati_cella_alessioCMCC!$Q$2:$Q$13,Dati_cella_alessioCMCC!$X$2:$X$13,Dati_cella_alessioCMCC!$AE$2:$AE$13,Dati_cella_alessioCMCC!$AL$2:$AL$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>8.6508000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.528</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.398700000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.7728</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>25.963200000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>27.561599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.5184</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.926400000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>18.6005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>13.910399999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.8279999999999994</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.4303999999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.4843999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11.3184</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16.701599999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>20.044799999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>25.92</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>27.691199999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>28.123200000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>23.414400000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17.325800000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>13.154400000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>10.281599999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.7544000000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.6075999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11.772</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>16.4695</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>20.776499999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25.7958</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>27.372599999999998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>27.502199999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>24.0732</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>18.194800000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>13.5945</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.7726500000000005</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.3291500000000003</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>8.6075999999999997</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>11.772</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>16.4695</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>20.776499999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>25.7958</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>27.372599999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>27.502199999999998</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24.0732</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>18.194800000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>13.5945</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.7726500000000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.3291500000000003</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>8.6075999999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>11.772</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>16.4695</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>20.776499999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25.7958</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>27.372599999999998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>27.502199999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>24.0732</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>18.194800000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>13.5945</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.7726500000000005</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.3291500000000003</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.6075999999999997</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>11.772</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>16.4695</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>20.776499999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25.7958</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>27.372599999999998</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>27.502199999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>24.0732</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>18.194800000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13.5945</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9.7726500000000005</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.3291500000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="109599744"/>
-        <c:axId val="109609728"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="109599744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109609728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109609728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109599744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369509"/>
-          <c:w val="0.79627780721145369"/>
-          <c:h val="0.68921660834062359"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>18.6785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1358099999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.347200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7804099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.030799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3293499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0283000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.640900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.240700000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.832599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.216700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.50800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.827500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.662400000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.911699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4590499999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3605600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0444100000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>135.429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>267.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.581699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.486599999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>31.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>18.6785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1358099999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.347200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7804099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.030799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3293499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0283000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.640900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.240700000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.832599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.216700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.50800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.827500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.662400000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.911699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4590499999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3605600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0444100000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>135.429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>267.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.581699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.486599999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>31.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="109634688"/>
-        <c:axId val="109636224"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="109634688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109636224"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109636224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109634688"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369517"/>
-          <c:w val="0.79627780721145369"/>
-          <c:h val="0.68921660834062359"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Ta_f</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$D$2:$D$13,Dati_cella_alessioCMCC!$K$2:$K$13,Dati_cella_alessioCMCC!$R$2:$R$13,Dati_cella_alessioCMCC!$Y$2:$Y$13,Dati_cella_alessioCMCC!$AF$2:$AF$13,Dati_cella_alessioCMCC!$AM$2:$AM$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>11.055999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.635999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.795999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.166</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.506</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25.175999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.986000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>15.906000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.756</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>11.476000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>9.9960000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>11.426</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13.416</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18.085999999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>20.966000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24.545999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>24.765999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.795999999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>18.466000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>15.706</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>13.125999999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>14.1</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>19.100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.4</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>22.7</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>17.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.600000000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>10.9</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.4</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>14.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>19.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>24.7</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>23.9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>23.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>22.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="109726336"/>
-        <c:axId val="109744512"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="109726336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109744512"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109744512"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109726336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369525"/>
-          <c:w val="0.79627780721145369"/>
-          <c:h val="0.68921660834062359"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>VPD_f</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$E$2:$E$13,Dati_cella_alessioCMCC!$L$2:$L$13,Dati_cella_alessioCMCC!$S$2:$S$13,Dati_cella_alessioCMCC!$Z$2:$Z$13,Dati_cella_alessioCMCC!$AG$2:$AG$13,Dati_cella_alessioCMCC!$AN$2:$AN$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>0.27515099999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.21582000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.30911499999999997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.30210500000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.47207399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.58874599999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57352899999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.49290800000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.82343999999999995</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.27993600000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35240700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.228936</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.17347799999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.21324899999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34100000000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.29618899999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.61235200000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.46245399999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.65438499999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29126400000000002</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.50838499999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.49820300000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.36318800000000001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.386131</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.15240300000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.16841800000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.193411</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27573999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.38314100000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.54803000000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.64424000000000003</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.673234</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.44665700000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.34349600000000002</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.217533</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.171043</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.140796</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.149948</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.19932800000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.26155</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.39192700000000003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.56924799999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.70499800000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.74760499999999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.52591600000000005</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.345412</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.24424699999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.179336</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.16091</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.19450400000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.22457199999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.25848199999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.41464499999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.56007099999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.73522100000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.687585</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.423958</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.32665899999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.202734</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.15826499999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.16680400000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.16739999999999999</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.21162900000000001</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.28061399999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.42167500000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.59754600000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.66869900000000004</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.70959799999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.58730099999999996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.345412</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.255689</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.17002999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="109764608"/>
-        <c:axId val="109766144"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="109764608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109766144"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="109766144"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109764608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>GPP-MADONIE_30m_2002-2009_20121209083001_output</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_deciduous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1303.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1084.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1437.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1399.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1087.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>901.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1338.98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1293.1400000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_evergreen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$13:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1907.79</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1753.53</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2085.36</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1975.98</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1654.21</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1586.51</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2038.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1885.32</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fagus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$14:$K$14</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1821.47</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1508.88</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1713</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1479.45</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1273.51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>433.98</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1671.53</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1786.65</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$15</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>castanea</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$15:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1568.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1328.83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1129.93</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1233.76</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1165.8800000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>658.04</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1026</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>975.93</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="100385920"/>
-        <c:axId val="100387456"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="100385920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100387456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100387456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>GPP</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100385920"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>GPP-MADONIE_30m_2002-2009_20121210111213_output</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_deciduous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$18:$L$18</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1303.56</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1084.55</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1437.25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1399.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1087.04</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>901.37</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1338.98</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1293.1400000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1230.7262499999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_evergreen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$19:$L$19</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1749.33</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1601.45</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1938.99</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1830.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1516.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1431.8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1859.35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1712.41</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1705.0225</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fagus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$20:$L$20</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1686.78</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1413.19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1583.33</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1433.39</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1201.8399999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>378.66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1500.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1671.07</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1358.5887500000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>castanea</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$21:$L$21</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1654.67</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1460.21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1204.54</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1318.07</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1246.29</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>728.19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1092.6300000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1045.1600000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1218.7199999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="100559104"/>
-        <c:axId val="100573184"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="100559104"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100573184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100573184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>GPP gC/(m^2yr)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100559104"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1200"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>GPP-MADONIE_30m_2002-2009_20121210170000_output</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_deciduous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$24:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1322.83</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1103.8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1467.65</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1434.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1118.94</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>932.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1392.11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1352.31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quercus_evergreen</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$25:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1730.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1576.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1894.88</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1780.42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1646.03</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1369.54</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1759.92</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1601.53</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>fagus</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$26:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1772.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1489.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1674.39</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1520.2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1279.57</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>404.31</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1609</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1798.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Madonie_GPP!$C$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>castanea</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2007</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Madonie_GPP!$D$27:$K$27</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>2092.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1885.76</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1588.86</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1775.95</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1715.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1023.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1567.2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1529.27</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="100600064"/>
-        <c:axId val="100618240"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="100600064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100618240"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:tickLblSkip val="1"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="100618240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>GPP gC/(m^2yr)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100600064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr>
-          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
-          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -5572,7 +2545,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:f>Titerno_GPP!$C$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5619,34 +2592,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$30:$K$30</c:f>
+              <c:f>Titerno_GPP!$D$6:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1322.862779</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1103.8313029999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1467.683417</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1435.8820149999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1118.9712400000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>932.25153899999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1392.146428</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1352.342668</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5656,7 +2605,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:f>Titerno_GPP!$C$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5703,33 +2652,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$31:$K$31</c:f>
+              <c:f>Titerno_GPP!$D$7:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1711.9945270000001</c:v>
+                  <c:v>1541.06</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1560.1885930000001</c:v>
+                  <c:v>1790.13</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1874.7971259999999</c:v>
+                  <c:v>1893.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1761.5565309999999</c:v>
+                  <c:v>1331.02</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1448.5159739999999</c:v>
+                  <c:v>1376.09</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1355.0328219999999</c:v>
+                  <c:v>1348.23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1741.273158</c:v>
+                  <c:v>1316.55</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1584.558931</c:v>
+                  <c:v>1401.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5740,7 +2689,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:f>Titerno_GPP!$C$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5787,34 +2736,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$32:$K$32</c:f>
+              <c:f>Titerno_GPP!$D$8:$K$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1663.9636370000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1373.902558</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1551.296926</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1400.266494</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1164.3494949999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>357.48516699999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1466.0512490000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1663.9636370000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5824,7 +2749,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:f>Titerno_GPP!$C$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5871,44 +2796,20 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Madonie_GPP!$D$33:$K$33</c:f>
+              <c:f>Titerno_GPP!$D$9:$K$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1762.8977870000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1513.8053480000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1264.202378</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1371.6033379999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1285.026734</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>728.00964499999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1103.499141</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1037.742211</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100632832"/>
-        <c:axId val="100651008"/>
+        <c:axId val="49214976"/>
+        <c:axId val="49216512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100632832"/>
+        <c:axId val="49214976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5916,7 +2817,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100651008"/>
+        <c:crossAx val="49216512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5924,7 +2825,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100651008"/>
+        <c:axId val="49216512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5950,7 +2851,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100632832"/>
+        <c:crossAx val="49214976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5976,7 +2877,3487 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>GPP</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Tammaro-Titerno 2002-2020</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Titerno_GPP!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Titerno_GPP!$D$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Titerno_GPP!$D$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1816.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2439.392957</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2611.2577059999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1711.4019940000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1935.737889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1762.5076690000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1865.6341609999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2106.5653349999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2389.8153109999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2436.323531</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2442.3855050000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2506.146283</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2490.4378190000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2754.0053680000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2758.4508089999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2470.668408</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2624.114861</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2038.0429569999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2454.378901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="49035520"/>
+        <c:axId val="49041408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="49035520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49041408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="49041408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49035520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>GPP scenario 2010-2020</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Titerno_GPP!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Titerno_GPP!$L$14:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Titerno_GPP!$L$15:$V$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2389.8153109999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2436.323531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2442.3855050000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2506.146283</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2490.4378190000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2754.0053680000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2758.4508089999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2470.668408</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2624.114861</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2038.0429569999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2454.378901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="82131584"/>
+        <c:axId val="82856576"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82131584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82856576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82856576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82131584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0346888062603302E-2"/>
+          <c:y val="0.21795166229221349"/>
+          <c:w val="0.82060868693496669"/>
+          <c:h val="0.68921660834062359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rg_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$C$2:$C$13,Dati_cella_alessioCMCC!$J$2:$J$13,Dati_cella_alessioCMCC!$Q$2:$Q$13,Dati_cella_alessioCMCC!$X$2:$X$13,Dati_cella_alessioCMCC!$AE$2:$AE$13,Dati_cella_alessioCMCC!$AL$2:$AL$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>8.6508000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.398700000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.7728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.963200000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.561599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27.5184</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.926400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.6005</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.910399999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.8279999999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4303999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4843999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11.3184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16.701599999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.044799999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.92</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>27.691199999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.123200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>23.414400000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>17.325800000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.154400000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.281599999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.7544000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.6075999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>11.772</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>16.4695</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20.776499999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.7958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>27.372599999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27.502199999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24.0732</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>18.194800000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.5945</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7726500000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.3291500000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.6075999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.772</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>16.4695</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20.776499999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>25.7958</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.372599999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.502199999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.0732</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>18.194800000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5945</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.7726500000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7.3291500000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.6075999999999997</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>11.772</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16.4695</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>20.776499999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>25.7958</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>27.372599999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27.502199999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>24.0732</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.194800000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.5945</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.7726500000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.3291500000000003</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.6075999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>11.772</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.4695</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.776499999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>25.7958</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.372599999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>27.502199999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>24.0732</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.194800000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.5945</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>9.7726500000000005</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.3291500000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="49249664"/>
+        <c:axId val="49255552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49249664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49255552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49255552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49249664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8580484863985976E-2"/>
+          <c:y val="0.19943314377369512"/>
+          <c:w val="0.79627780721145369"/>
+          <c:h val="0.68921660834062359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>18.6785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1358099999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.347200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7804099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3293499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0283000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.640900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.240700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.832599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.216700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.827500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.662400000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.911699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4590499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.3828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3605600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0444100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>267.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.581699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.486599999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>18.6785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1358099999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.347200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7804099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3293499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0283000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.640900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.240700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.832599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.216700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.827500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.662400000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.911699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4590499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.3828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3605600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0444100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>267.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.581699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.486599999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="49751552"/>
+        <c:axId val="49753088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49751552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49753088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49753088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49751552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8580484863985976E-2"/>
+          <c:y val="0.19943314377369523"/>
+          <c:w val="0.79627780721145369"/>
+          <c:h val="0.68921660834062359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ta_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$D$2:$D$13,Dati_cella_alessioCMCC!$K$2:$K$13,Dati_cella_alessioCMCC!$R$2:$R$13,Dati_cella_alessioCMCC!$Y$2:$Y$13,Dati_cella_alessioCMCC!$AF$2:$AF$13,Dati_cella_alessioCMCC!$AM$2:$AM$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>11.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.476000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.706</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="49765376"/>
+        <c:axId val="49787648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49765376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49787648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49787648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49765376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>GPP-MADONIE_30m_2002-2009_20121209083001_output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_deciduous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1303.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1084.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1437.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1399.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1087.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1338.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1293.1400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_evergreen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$13:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1907.79</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1753.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2085.36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1975.98</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1654.21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1586.51</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2038.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1885.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$14:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1821.47</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1508.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1479.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1273.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>433.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1671.53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1786.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>castanea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1568.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1328.83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1129.93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1233.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1165.8800000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>658.04</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1026</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>975.93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="143745792"/>
+        <c:axId val="143747328"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143745792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143747328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143747328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPP</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143745792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8580484863985976E-2"/>
+          <c:y val="0.19943314377369528"/>
+          <c:w val="0.79627780721145369"/>
+          <c:h val="0.68921660834062359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VPD_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$E$2:$E$13,Dati_cella_alessioCMCC!$L$2:$L$13,Dati_cella_alessioCMCC!$S$2:$S$13,Dati_cella_alessioCMCC!$Z$2:$Z$13,Dati_cella_alessioCMCC!$AG$2:$AG$13,Dati_cella_alessioCMCC!$AN$2:$AN$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>0.27515099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21582000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30911499999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30210500000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47207399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58874599999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57352899999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49290800000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82343999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27993600000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35240700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.228936</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17347799999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21324899999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29618899999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.61235200000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.46245399999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65438499999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29126400000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.50838499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.49820300000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.36318800000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.386131</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.15240300000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.16841800000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.193411</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.27573999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.38314100000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54803000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64424000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.673234</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.44665700000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.34349600000000002</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.217533</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.171043</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.140796</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.149948</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.19932800000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.26155</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.39192700000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.56924799999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.70499800000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.74760499999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.52591600000000005</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.345412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.24424699999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.179336</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.16091</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.19450400000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.22457199999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.25848199999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.41464499999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.56007099999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.73522100000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.687585</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.423958</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.32665899999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.202734</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.15826499999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.16680400000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.16739999999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.21162900000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.28061399999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42167500000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.59754600000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.66869900000000004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.70959799999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.58730099999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.345412</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.255689</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.17002999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="49815936"/>
+        <c:axId val="49817472"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="49815936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49817472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="49817472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="49815936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>GPP-MADONIE_30m_2002-2009_20121210111213_output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_deciduous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$18:$L$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1303.56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1084.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1437.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1399.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1087.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>901.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1338.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1293.1400000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1230.7262499999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_evergreen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$19:$L$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1749.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1601.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1938.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1830.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1516.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1431.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1859.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1712.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1705.0225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$20:$L$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1686.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1413.19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1583.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1433.39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1201.8399999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>378.66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1500.45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1671.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1358.5887500000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>castanea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$21:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1654.67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1460.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1204.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1318.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1246.29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728.19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1092.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1045.1600000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1218.7199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="143779712"/>
+        <c:axId val="143781248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="143779712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143781248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="143781248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPP gC/(m^2yr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="143779712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>GPP-MADONIE_30m_2002-2009_20121210170000_output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_deciduous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$24:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1322.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1103.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1467.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1434.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1118.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>932.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1392.11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1352.31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_evergreen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$25:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1730.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1576.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1894.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1780.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1646.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1369.54</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1759.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1601.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$26:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1772.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1489.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1674.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1520.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1279.57</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>404.31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1609</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1798.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>castanea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$27:$K$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2092.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1885.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1588.86</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1775.95</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1715.13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1023.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1567.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1529.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="144107392"/>
+        <c:axId val="144108928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144107392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144108928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144108928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPP gC/(m^2yr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144107392"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>GPP-MADONIE_30m_2002-2009_20121211181818_output</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_deciduous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$30:$K$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1322.862779</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1103.8313029999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1467.683417</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1435.8820149999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1118.9712400000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>932.25153899999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1392.146428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1352.342668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quercus_evergreen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1711.9945270000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1560.1885930000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1874.7971259999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1761.5565309999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1448.5159739999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1355.0328219999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1741.273158</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1584.558931</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fagus</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$32:$K$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1663.9636370000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1373.902558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1551.296926</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400.266494</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1164.3494949999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>357.48516699999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1466.0512490000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1663.9636370000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Madonie_GPP!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>castanea</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$17:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Madonie_GPP!$D$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1762.8977870000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1513.8053480000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1264.202378</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1371.6033379999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1285.026734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>728.00964499999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1103.499141</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1037.742211</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="144553856"/>
+        <c:axId val="144555392"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="144553856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144555392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="144555392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPP gC/(m^2yr)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="144553856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6217,39 +6598,38 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100687872"/>
-        <c:axId val="100689408"/>
+        <c:axId val="146104704"/>
+        <c:axId val="146106240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100687872"/>
+        <c:axId val="146104704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100689408"/>
+        <c:crossAx val="146106240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100689408"/>
+        <c:axId val="146106240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100687872"/>
+        <c:crossAx val="146104704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6265,7 +6645,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6291,7 +6671,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -6457,23 +6836,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100724736"/>
-        <c:axId val="100726272"/>
+        <c:axId val="146137088"/>
+        <c:axId val="146138624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100724736"/>
+        <c:axId val="146137088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100726272"/>
+        <c:crossAx val="146138624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100726272"/>
+        <c:axId val="146138624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6481,20 +6860,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100724736"/>
+        <c:crossAx val="146137088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6520,7 +6898,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -6530,7 +6907,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10015507436570428"/>
           <c:y val="0.10753766728940076"/>
-          <c:w val="0.71317294595774439"/>
+          <c:w val="0.71317294595774428"/>
           <c:h val="0.75141610619674859"/>
         </c:manualLayout>
       </c:layout>
@@ -6986,23 +7363,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="100760192"/>
-        <c:axId val="100774272"/>
+        <c:axId val="146164352"/>
+        <c:axId val="146174336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100760192"/>
+        <c:axId val="146164352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100774272"/>
+        <c:crossAx val="146174336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100774272"/>
+        <c:axId val="146174336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7010,20 +7387,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100760192"/>
+        <c:crossAx val="146164352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7266,23 +7642,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="86909696"/>
-        <c:axId val="84855808"/>
+        <c:axId val="146199296"/>
+        <c:axId val="146200832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86909696"/>
+        <c:axId val="146199296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84855808"/>
+        <c:crossAx val="146200832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84855808"/>
+        <c:axId val="146200832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +7666,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86909696"/>
+        <c:crossAx val="146199296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7303,7 +7679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7736,6 +8112,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7865,27 +8301,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2012" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2009" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2010" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2011" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2012" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2009" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2010" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2013" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2013" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2011" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8175,7 +8611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:X94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AO82" sqref="AO82"/>
     </sheetView>
   </sheetViews>
@@ -8193,16 +8629,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="1" t="s">
@@ -8369,16 +8805,16 @@
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="1" t="s">
@@ -8546,16 +8982,16 @@
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="3"/>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:14">
@@ -8724,16 +9160,16 @@
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="3"/>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="3:14">
@@ -8901,18 +9337,18 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="10.8" thickBot="1">
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="3" t="s">
@@ -9157,27 +9593,27 @@
       </c>
     </row>
     <row r="47" spans="3:23">
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
     </row>
     <row r="48" spans="3:23">
       <c r="C48" s="3" t="s">
@@ -9448,27 +9884,27 @@
       </c>
     </row>
     <row r="54" spans="3:23">
-      <c r="D54" s="12" t="s">
+      <c r="D54" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="12"/>
-      <c r="O54" s="12"/>
-      <c r="P54" s="12"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
-      <c r="T54" s="12"/>
-      <c r="U54" s="12"/>
-      <c r="V54" s="12"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="24"/>
+      <c r="S54" s="24"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="24"/>
+      <c r="V54" s="24"/>
     </row>
     <row r="55" spans="3:23">
       <c r="C55" s="3" t="s">
@@ -9617,27 +10053,27 @@
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="12"/>
-      <c r="P76" s="12"/>
-      <c r="Q76" s="12"/>
-      <c r="R76" s="12"/>
-      <c r="S76" s="12"/>
-      <c r="T76" s="12"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="24"/>
+      <c r="P76" s="24"/>
+      <c r="Q76" s="24"/>
+      <c r="R76" s="24"/>
+      <c r="S76" s="24"/>
+      <c r="T76" s="24"/>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
@@ -9912,73 +10348,73 @@
     </row>
     <row r="83" spans="1:24" ht="10.8" thickBot="1">
       <c r="A83" s="3"/>
-      <c r="F83" s="23" t="s">
+      <c r="F83" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="25"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:24">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17">
+      <c r="A84" s="12"/>
+      <c r="B84" s="13">
         <v>2002</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="13">
         <v>2003</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D84" s="13">
         <v>2004</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="13">
         <v>2005</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="13">
         <v>2006</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G84" s="13">
         <v>2007</v>
       </c>
-      <c r="H84" s="17">
+      <c r="H84" s="13">
         <v>2008</v>
       </c>
-      <c r="I84" s="17">
+      <c r="I84" s="13">
         <v>2009</v>
       </c>
-      <c r="J84" s="17">
+      <c r="J84" s="13">
         <v>2010</v>
       </c>
-      <c r="K84" s="17">
+      <c r="K84" s="13">
         <v>2011</v>
       </c>
-      <c r="L84" s="17">
+      <c r="L84" s="13">
         <v>2012</v>
       </c>
-      <c r="M84" s="17">
+      <c r="M84" s="13">
         <v>2013</v>
       </c>
-      <c r="N84" s="17">
+      <c r="N84" s="13">
         <v>2014</v>
       </c>
-      <c r="O84" s="17">
+      <c r="O84" s="13">
         <v>2015</v>
       </c>
-      <c r="P84" s="17">
+      <c r="P84" s="13">
         <v>2016</v>
       </c>
-      <c r="Q84" s="17">
+      <c r="Q84" s="13">
         <v>2017</v>
       </c>
-      <c r="R84" s="17">
+      <c r="R84" s="13">
         <v>2018</v>
       </c>
-      <c r="S84" s="17">
+      <c r="S84" s="13">
         <v>2019</v>
       </c>
-      <c r="T84" s="17">
+      <c r="T84" s="13">
         <v>2020</v>
       </c>
       <c r="U84" s="1" t="s">
@@ -9995,67 +10431,67 @@
       </c>
     </row>
     <row r="85" spans="1:24">
-      <c r="A85" s="18" t="s">
+      <c r="A85" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="26">
+      <c r="B85" s="19">
         <v>1906.5399150000001</v>
       </c>
-      <c r="C85" s="26">
+      <c r="C85" s="19">
         <v>1662.7663930000001</v>
       </c>
-      <c r="D85" s="26">
+      <c r="D85" s="19">
         <v>1440.179179</v>
       </c>
-      <c r="E85" s="26">
+      <c r="E85" s="19">
         <v>1438.8150350000001</v>
       </c>
-      <c r="F85" s="26">
+      <c r="F85" s="19">
         <v>1405.100921</v>
       </c>
-      <c r="G85" s="26">
+      <c r="G85" s="19">
         <v>861.32193400000006</v>
       </c>
-      <c r="H85" s="26">
+      <c r="H85" s="19">
         <v>1252.044834</v>
       </c>
-      <c r="I85" s="26">
+      <c r="I85" s="19">
         <v>1166.6401020000001</v>
       </c>
-      <c r="J85" s="26">
+      <c r="J85" s="19">
         <v>1813.436905</v>
       </c>
-      <c r="K85" s="26">
+      <c r="K85" s="19">
         <v>1592.284621</v>
       </c>
-      <c r="L85" s="26">
+      <c r="L85" s="19">
         <v>1537.155647</v>
       </c>
-      <c r="M85" s="26">
+      <c r="M85" s="19">
         <v>1459.0343339999999</v>
       </c>
-      <c r="N85" s="26">
+      <c r="N85" s="19">
         <v>1423.9461980000001</v>
       </c>
-      <c r="O85" s="26">
+      <c r="O85" s="19">
         <v>1210.891768</v>
       </c>
-      <c r="P85" s="26">
+      <c r="P85" s="19">
         <v>1169.900641</v>
       </c>
-      <c r="Q85" s="26">
+      <c r="Q85" s="19">
         <v>987.77510199999995</v>
       </c>
-      <c r="R85" s="26">
+      <c r="R85" s="19">
         <v>944.885986</v>
       </c>
-      <c r="S85" s="26">
+      <c r="S85" s="19">
         <v>814.55539899999997</v>
       </c>
-      <c r="T85" s="26">
+      <c r="T85" s="19">
         <v>789.70346300000006</v>
       </c>
-      <c r="U85" s="27">
+      <c r="U85" s="20">
         <f>AVERAGE(B85:T85)</f>
         <v>1309.314651421053</v>
       </c>
@@ -10073,67 +10509,67 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="18" t="s">
+      <c r="A86" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="26">
+      <c r="B86" s="19">
         <v>1026.9168560000001</v>
       </c>
-      <c r="C86" s="26">
+      <c r="C86" s="19">
         <v>892.65712199999996</v>
       </c>
-      <c r="D86" s="26">
+      <c r="D86" s="19">
         <v>1030.6607289999999</v>
       </c>
-      <c r="E86" s="26">
+      <c r="E86" s="19">
         <v>879.23539600000004</v>
       </c>
-      <c r="F86" s="26">
+      <c r="F86" s="19">
         <v>693.35806000000002</v>
       </c>
-      <c r="G86" s="26">
+      <c r="G86" s="19">
         <v>203.336277</v>
       </c>
-      <c r="H86" s="26">
+      <c r="H86" s="19">
         <v>836.458123</v>
       </c>
-      <c r="I86" s="26">
+      <c r="I86" s="19">
         <v>912.07707600000003</v>
       </c>
-      <c r="J86" s="26">
+      <c r="J86" s="19">
         <v>1145.336969</v>
       </c>
-      <c r="K86" s="26">
+      <c r="K86" s="19">
         <v>1163.9668489999999</v>
       </c>
-      <c r="L86" s="26">
+      <c r="L86" s="19">
         <v>960.46450700000003</v>
       </c>
-      <c r="M86" s="26">
+      <c r="M86" s="19">
         <v>818.92528900000002</v>
       </c>
-      <c r="N86" s="26">
+      <c r="N86" s="19">
         <v>561.23433799999998</v>
       </c>
-      <c r="O86" s="26">
+      <c r="O86" s="19">
         <v>338.97909199999998</v>
       </c>
-      <c r="P86" s="26">
+      <c r="P86" s="19">
         <v>230.02028799999999</v>
       </c>
-      <c r="Q86" s="26">
+      <c r="Q86" s="19">
         <v>162.32499100000001</v>
       </c>
-      <c r="R86" s="26">
+      <c r="R86" s="19">
         <v>92.753787000000003</v>
       </c>
-      <c r="S86" s="26">
+      <c r="S86" s="19">
         <v>63.686374000000001</v>
       </c>
-      <c r="T86" s="26">
+      <c r="T86" s="19">
         <v>67.676625000000001</v>
       </c>
-      <c r="U86" s="27">
+      <c r="U86" s="20">
         <f>AVERAGE(B86:T86)</f>
         <v>635.79309200000012</v>
       </c>
@@ -10151,13 +10587,13 @@
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="26">
+      <c r="B87" s="19">
         <v>1322.745304</v>
       </c>
-      <c r="C87" s="26">
+      <c r="C87" s="19">
         <v>1102.3627320000001</v>
       </c>
       <c r="D87" s="2">
@@ -10169,49 +10605,49 @@
       <c r="F87" s="2">
         <v>1114.903311</v>
       </c>
-      <c r="G87" s="26">
+      <c r="G87" s="19">
         <v>930.01180899999997</v>
       </c>
       <c r="H87" s="2">
         <v>1390.3697010000001</v>
       </c>
-      <c r="I87" s="26">
+      <c r="I87" s="19">
         <v>1347.726629</v>
       </c>
-      <c r="J87" s="26">
+      <c r="J87" s="19">
         <v>2609.0602469999999</v>
       </c>
-      <c r="K87" s="26">
+      <c r="K87" s="19">
         <v>2490.750176</v>
       </c>
-      <c r="L87" s="26">
+      <c r="L87" s="19">
         <v>2580.2146309999998</v>
       </c>
-      <c r="M87" s="26">
+      <c r="M87" s="19">
         <v>2585.957762</v>
       </c>
-      <c r="N87" s="26">
+      <c r="N87" s="19">
         <v>2604.791643</v>
       </c>
-      <c r="O87" s="26">
+      <c r="O87" s="19">
         <v>2525.09681</v>
       </c>
-      <c r="P87" s="26">
+      <c r="P87" s="19">
         <v>2555.343734</v>
       </c>
-      <c r="Q87" s="26">
+      <c r="Q87" s="19">
         <v>2450.7129089999999</v>
       </c>
-      <c r="R87" s="26">
+      <c r="R87" s="19">
         <v>2514.848794</v>
       </c>
-      <c r="S87" s="26">
+      <c r="S87" s="19">
         <v>2494.884775</v>
       </c>
-      <c r="T87" s="26">
+      <c r="T87" s="19">
         <v>2506.0563560000001</v>
       </c>
-      <c r="U87" s="27">
+      <c r="U87" s="20">
         <f>AVERAGE(B87:T87)</f>
         <v>2000.790806</v>
       </c>
@@ -10229,30 +10665,30 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="10.8" thickBot="1">
-      <c r="A88" s="20"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="21"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="21"/>
-      <c r="M88" s="21"/>
-      <c r="N88" s="21"/>
-      <c r="O88" s="21"/>
-      <c r="P88" s="21"/>
-      <c r="Q88" s="21"/>
-      <c r="R88" s="21"/>
-      <c r="S88" s="21"/>
-      <c r="T88" s="21"/>
-      <c r="U88" s="22"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="17"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="18"/>
     </row>
     <row r="89" spans="1:24">
-      <c r="U89" s="19"/>
+      <c r="U89" s="15"/>
     </row>
     <row r="91" spans="1:24">
       <c r="V91" s="1" t="s">
@@ -10311,18 +10747,18 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="7" t="s">
@@ -10437,10 +10873,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:L9"/>
+  <dimension ref="C4:V16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -10450,21 +10886,21 @@
     <col min="4" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:12">
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="3:22">
+      <c r="C4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
       <c r="L4" s="5"/>
     </row>
-    <row r="5" spans="3:12">
+    <row r="5" spans="3:22">
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10496,7 +10932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="3:12">
+    <row r="6" spans="3:22">
       <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
@@ -10513,7 +10949,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="3:12">
+    <row r="7" spans="3:22">
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
@@ -10546,7 +10982,7 @@
         <v>1499.8224999999998</v>
       </c>
     </row>
-    <row r="8" spans="3:12">
+    <row r="8" spans="3:22">
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
@@ -10563,7 +10999,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="3:12">
+    <row r="9" spans="3:22">
       <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
@@ -10578,6 +11014,133 @@
       <c r="L9" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22">
+      <c r="D14" s="6">
+        <v>2002</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2003</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2004</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2005</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2006</v>
+      </c>
+      <c r="I14" s="6">
+        <v>2007</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2008</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2009</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2010</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2011</v>
+      </c>
+      <c r="N14" s="6">
+        <v>2012</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2013</v>
+      </c>
+      <c r="P14" s="6">
+        <v>2014</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>2015</v>
+      </c>
+      <c r="R14" s="6">
+        <v>2016</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2017</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2018</v>
+      </c>
+      <c r="U14" s="6">
+        <v>2019</v>
+      </c>
+      <c r="V14" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22">
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1816.9</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2439.392957</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2611.2577059999999</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1711.4019940000001</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1935.737889</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1762.5076690000001</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1865.6341609999999</v>
+      </c>
+      <c r="K15" s="6">
+        <v>2106.5653349999998</v>
+      </c>
+      <c r="L15" s="6">
+        <v>2389.8153109999998</v>
+      </c>
+      <c r="M15" s="6">
+        <v>2436.323531</v>
+      </c>
+      <c r="N15" s="6">
+        <v>2442.3855050000002</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2506.146283</v>
+      </c>
+      <c r="P15" s="6">
+        <v>2490.4378190000002</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>2754.0053680000001</v>
+      </c>
+      <c r="R15" s="6">
+        <v>2758.4508089999999</v>
+      </c>
+      <c r="S15" s="6">
+        <v>2470.668408</v>
+      </c>
+      <c r="T15" s="6">
+        <v>2624.114861</v>
+      </c>
+      <c r="U15" s="6">
+        <v>2038.0429569999999</v>
+      </c>
+      <c r="V15" s="6">
+        <v>2454.378901</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22">
+      <c r="K16" s="6">
+        <f>AVERAGE(D15:K15)</f>
+        <v>2031.174713875</v>
       </c>
     </row>
   </sheetData>

--- a/docs/UNCEM_AS.xlsx
+++ b/docs/UNCEM_AS.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="3300" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="3300"/>
   </bookViews>
   <sheets>
     <sheet name="Madonie_GPP" sheetId="1" r:id="rId1"/>
-    <sheet name="Madonie_NPP" sheetId="4" r:id="rId2"/>
-    <sheet name="Titerno_GPP" sheetId="2" r:id="rId3"/>
-    <sheet name="Dati_cella_alessioCMCC" sheetId="3" r:id="rId4"/>
+    <sheet name="Titerno_GPP" sheetId="2" r:id="rId2"/>
+    <sheet name="Dati_cella_alessioCMCC" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_851_124_2008" localSheetId="3">Dati_cella_alessioCMCC!$A$1:$I$13</definedName>
-    <definedName name="_851_124_2009" localSheetId="3">Dati_cella_alessioCMCC!$J$1:$P$13</definedName>
-    <definedName name="_851_124_2010" localSheetId="3">Dati_cella_alessioCMCC!$Q$1:$W$13</definedName>
-    <definedName name="_851_124_2011" localSheetId="3">Dati_cella_alessioCMCC!$X$1:$AD$13</definedName>
-    <definedName name="_851_124_2012" localSheetId="3">Dati_cella_alessioCMCC!$AE$1:$AK$13</definedName>
-    <definedName name="_851_124_2013" localSheetId="3">Dati_cella_alessioCMCC!$AL$1:$AR$13</definedName>
+    <definedName name="_851_124_2008" localSheetId="2">Dati_cella_alessioCMCC!$A$1:$I$13</definedName>
+    <definedName name="_851_124_2009" localSheetId="2">Dati_cella_alessioCMCC!$J$1:$P$13</definedName>
+    <definedName name="_851_124_2010" localSheetId="2">Dati_cella_alessioCMCC!$Q$1:$W$13</definedName>
+    <definedName name="_851_124_2011" localSheetId="2">Dati_cella_alessioCMCC!$X$1:$AD$13</definedName>
+    <definedName name="_851_124_2012" localSheetId="2">Dati_cella_alessioCMCC!$AE$1:$AK$13</definedName>
+    <definedName name="_851_124_2013" localSheetId="2">Dati_cella_alessioCMCC!$AL$1:$AR$13</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -120,7 +119,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t>quercus_deciduous</t>
   </si>
@@ -226,11 +225,29 @@
   <si>
     <t>NPP gC/m2</t>
   </si>
+  <si>
+    <t>MADONIE_30m_2002-2020_20130110000001_output</t>
+  </si>
+  <si>
+    <t>Castanea 2012</t>
+  </si>
+  <si>
+    <t>Castanea 2013</t>
+  </si>
+  <si>
+    <t>Versione modello 532</t>
+  </si>
+  <si>
+    <t>Fagus2013</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -422,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -430,8 +447,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -444,6 +459,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -457,9 +474,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -502,8 +516,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6862914736492432E-2"/>
-          <c:y val="0.25973388743073711"/>
-          <c:w val="0.699386505754928"/>
+          <c:y val="0.259733887430737"/>
+          <c:w val="0.69938650575492756"/>
           <c:h val="0.60113808690580361"/>
         </c:manualLayout>
       </c:layout>
@@ -846,25 +860,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143389824"/>
-        <c:axId val="143391360"/>
+        <c:axId val="88246528"/>
+        <c:axId val="88563712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143389824"/>
+        <c:axId val="88246528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143391360"/>
+        <c:crossAx val="88563712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143391360"/>
+        <c:axId val="88563712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +886,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143389824"/>
+        <c:crossAx val="88246528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -884,7 +898,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1327,23 +1341,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="150998016"/>
-        <c:axId val="151003904"/>
+        <c:axId val="77855360"/>
+        <c:axId val="78385536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150998016"/>
+        <c:axId val="77855360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151003904"/>
+        <c:crossAx val="78385536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151003904"/>
+        <c:axId val="78385536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1351,7 +1365,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150998016"/>
+        <c:crossAx val="77855360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1364,7 +1378,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1625,23 +1639,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151033728"/>
-        <c:axId val="151035264"/>
+        <c:axId val="78435840"/>
+        <c:axId val="78437376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151033728"/>
+        <c:axId val="78435840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151035264"/>
+        <c:crossAx val="78437376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151035264"/>
+        <c:axId val="78437376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1649,7 +1663,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151033728"/>
+        <c:crossAx val="78435840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1662,7 +1676,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1976,23 +1990,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151196416"/>
-        <c:axId val="151197952"/>
+        <c:axId val="79651200"/>
+        <c:axId val="79652736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151196416"/>
+        <c:axId val="79651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151197952"/>
+        <c:crossAx val="79652736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151197952"/>
+        <c:axId val="79652736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2000,7 +2014,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151196416"/>
+        <c:crossAx val="79651200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2013,7 +2027,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2039,6 +2053,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2470,11 +2485,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151241088"/>
-        <c:axId val="151242624"/>
+        <c:axId val="79669888"/>
+        <c:axId val="79692160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151241088"/>
+        <c:axId val="79669888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2020"/>
@@ -2483,12 +2498,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151242624"/>
+        <c:crossAx val="79692160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151242624"/>
+        <c:axId val="79692160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,19 +2511,20 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151241088"/>
+        <c:crossAx val="79669888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2805,11 +2821,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49214976"/>
-        <c:axId val="49216512"/>
+        <c:axId val="79814656"/>
+        <c:axId val="79816192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49214976"/>
+        <c:axId val="79814656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2833,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49216512"/>
+        <c:crossAx val="79816192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2825,7 +2841,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49216512"/>
+        <c:axId val="79816192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2851,7 +2867,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49214976"/>
+        <c:crossAx val="79814656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2877,7 +2893,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3064,23 +3080,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="49035520"/>
-        <c:axId val="49041408"/>
+        <c:axId val="80909056"/>
+        <c:axId val="80910592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49035520"/>
+        <c:axId val="80909056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49041408"/>
+        <c:crossAx val="80910592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49041408"/>
+        <c:axId val="80910592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,7 +3104,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49035520"/>
+        <c:crossAx val="80909056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3101,7 +3117,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3235,23 +3251,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="82131584"/>
-        <c:axId val="82856576"/>
+        <c:axId val="80951168"/>
+        <c:axId val="80952704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82131584"/>
+        <c:axId val="80951168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82856576"/>
+        <c:crossAx val="80952704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82856576"/>
+        <c:axId val="80952704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3259,7 +3275,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82131584"/>
+        <c:crossAx val="80951168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3272,7 +3288,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3541,24 +3557,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49249664"/>
-        <c:axId val="49255552"/>
+        <c:axId val="85335040"/>
+        <c:axId val="85345024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49249664"/>
+        <c:axId val="85335040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49255552"/>
+        <c:crossAx val="85345024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49255552"/>
+        <c:axId val="85345024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3566,556 +3582,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49249664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369512"/>
-          <c:w val="0.79627780721145369"/>
-          <c:h val="0.68921660834062359"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>18.6785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1358099999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.347200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7804099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.030799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3293499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0283000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.640900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.240700000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.832599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.216700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.50800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.827500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.662400000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.911699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4590499999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3605600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0444100000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>135.429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>267.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.581699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.486599999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>31.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>18.6785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1358099999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.347200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7804099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.030799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3293499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0283000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.640900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.240700000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.832599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.216700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.50800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.827500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.662400000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.911699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4590499999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3605600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0444100000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>135.429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>267.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.581699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.486599999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>31.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="49751552"/>
-        <c:axId val="49753088"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="49751552"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49753088"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="49753088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49751552"/>
+        <c:crossAx val="85335040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4133,7 +3600,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -4153,6 +3620,555 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>18.6785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1358099999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.347200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7804099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3293499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0283000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.640900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.240700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.832599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.216700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.827500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.662400000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.911699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4590499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.3828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3605600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0444100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>267.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.581699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.486599999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>18.6785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1358099999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.347200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7804099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3293499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0283000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.640900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.240700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.832599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.216700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.827500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.662400000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.911699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4590499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.3828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3605600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0444100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>267.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.581699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.486599999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="85369984"/>
+        <c:axId val="85371520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85369984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85371520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85371520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85369984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8580484863985976E-2"/>
+          <c:y val="0.19943314377369528"/>
+          <c:w val="0.79627780721145369"/>
+          <c:h val="0.68921660834062359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -4396,24 +4412,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49765376"/>
-        <c:axId val="49787648"/>
+        <c:axId val="85387904"/>
+        <c:axId val="88162688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49765376"/>
+        <c:axId val="85387904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49787648"/>
+        <c:crossAx val="88162688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49787648"/>
+        <c:axId val="88162688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4421,7 +4437,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49765376"/>
+        <c:crossAx val="85387904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4433,7 +4449,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4669,25 +4685,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143745792"/>
-        <c:axId val="143747328"/>
+        <c:axId val="100325248"/>
+        <c:axId val="100326784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143745792"/>
+        <c:axId val="100325248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143747328"/>
+        <c:crossAx val="100326784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143747328"/>
+        <c:axId val="100326784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4713,7 +4729,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143745792"/>
+        <c:crossAx val="100325248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4725,7 +4741,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4743,7 +4759,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369528"/>
+          <c:y val="0.19943314377369534"/>
           <c:w val="0.79627780721145369"/>
           <c:h val="0.68921660834062359"/>
         </c:manualLayout>
@@ -4994,24 +5010,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="49815936"/>
-        <c:axId val="49817472"/>
+        <c:axId val="88170496"/>
+        <c:axId val="88172032"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="49815936"/>
+        <c:axId val="88170496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49817472"/>
+        <c:crossAx val="88172032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="49817472"/>
+        <c:axId val="88172032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5019,7 +5035,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49815936"/>
+        <c:crossAx val="88170496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5031,7 +5047,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5411,11 +5427,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143779712"/>
-        <c:axId val="143781248"/>
+        <c:axId val="100948608"/>
+        <c:axId val="100995840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143779712"/>
+        <c:axId val="100948608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5423,7 +5439,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143781248"/>
+        <c:crossAx val="100995840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5431,7 +5447,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143781248"/>
+        <c:axId val="100995840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5456,7 +5472,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143779712"/>
+        <c:crossAx val="100948608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5481,7 +5497,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5849,11 +5865,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144107392"/>
-        <c:axId val="144108928"/>
+        <c:axId val="143574528"/>
+        <c:axId val="143576064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144107392"/>
+        <c:axId val="143574528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5861,7 +5877,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144108928"/>
+        <c:crossAx val="143576064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5869,7 +5885,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144108928"/>
+        <c:axId val="143576064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,7 +5910,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144107392"/>
+        <c:crossAx val="143574528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5919,7 +5935,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6287,11 +6303,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="144553856"/>
-        <c:axId val="144555392"/>
+        <c:axId val="76113408"/>
+        <c:axId val="76114944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144553856"/>
+        <c:axId val="76113408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6315,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144555392"/>
+        <c:crossAx val="76114944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6307,7 +6323,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144555392"/>
+        <c:axId val="76114944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6332,7 +6348,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144553856"/>
+        <c:crossAx val="76113408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6357,7 +6373,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6598,38 +6614,39 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="146104704"/>
-        <c:axId val="146106240"/>
+        <c:axId val="77012992"/>
+        <c:axId val="77014528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="146104704"/>
+        <c:axId val="77012992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146106240"/>
+        <c:crossAx val="77014528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146106240"/>
+        <c:axId val="77014528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146104704"/>
+        <c:crossAx val="77012992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6645,7 +6662,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6836,23 +6853,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146137088"/>
-        <c:axId val="146138624"/>
+        <c:axId val="77024640"/>
+        <c:axId val="77030528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146137088"/>
+        <c:axId val="77024640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146138624"/>
+        <c:crossAx val="77030528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146138624"/>
+        <c:axId val="77030528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6860,7 +6877,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146137088"/>
+        <c:crossAx val="77024640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6872,7 +6889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6898,6 +6915,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -6907,7 +6925,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10015507436570428"/>
           <c:y val="0.10753766728940076"/>
-          <c:w val="0.71317294595774428"/>
+          <c:w val="0.71317294595774405"/>
           <c:h val="0.75141610619674859"/>
         </c:manualLayout>
       </c:layout>
@@ -7363,23 +7381,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146164352"/>
-        <c:axId val="146174336"/>
+        <c:axId val="77056256"/>
+        <c:axId val="77799424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146164352"/>
+        <c:axId val="77056256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146174336"/>
+        <c:crossAx val="77799424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146174336"/>
+        <c:axId val="77799424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7387,19 +7405,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146164352"/>
+        <c:crossAx val="77056256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7642,23 +7661,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="146199296"/>
-        <c:axId val="146200832"/>
+        <c:axId val="77836672"/>
+        <c:axId val="77838208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146199296"/>
+        <c:axId val="77836672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146200832"/>
+        <c:crossAx val="77838208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146200832"/>
+        <c:axId val="77838208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7666,7 +7685,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146199296"/>
+        <c:crossAx val="77836672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7679,7 +7698,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8301,27 +8320,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2013" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2012" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2011" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2010" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2009" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2010" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2013" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2011" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8609,10 +8628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:X94"/>
+  <dimension ref="A4:X144"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AO82" sqref="AO82"/>
+    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U144" sqref="U144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999"/>
@@ -9384,7 +9403,7 @@
       <c r="M29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="7" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9424,7 +9443,7 @@
         <f>AVERAGE(K30,J30,H30,G30,F30,E30,D30)</f>
         <v>1313.3885500000001</v>
       </c>
-      <c r="N30" s="10">
+      <c r="N30" s="8">
         <f>L30*0.49</f>
         <v>620.21574757625001</v>
       </c>
@@ -9465,7 +9484,7 @@
         <f t="shared" ref="M31:M33" si="4">AVERAGE(K31,J31,H31,G31,F31,E31,D31)</f>
         <v>1668.9835485714286</v>
       </c>
-      <c r="N31" s="10">
+      <c r="N31" s="8">
         <f t="shared" ref="N31:N33" si="5">L31*0.49</f>
         <v>798.57245679749985</v>
       </c>
@@ -9506,7 +9525,7 @@
         <f t="shared" si="4"/>
         <v>1469.1134280000001</v>
       </c>
-      <c r="N32" s="10">
+      <c r="N32" s="8">
         <f t="shared" si="5"/>
         <v>651.77834873374991</v>
       </c>
@@ -9547,7 +9566,7 @@
         <f t="shared" si="4"/>
         <v>1334.110991</v>
       </c>
-      <c r="N33" s="11">
+      <c r="N33" s="9">
         <f t="shared" si="5"/>
         <v>616.59067814750006</v>
       </c>
@@ -10359,62 +10378,62 @@
       <c r="L83" s="23"/>
     </row>
     <row r="84" spans="1:24">
-      <c r="A84" s="12"/>
-      <c r="B84" s="13">
+      <c r="A84" s="10"/>
+      <c r="B84" s="11">
         <v>2002</v>
       </c>
-      <c r="C84" s="13">
+      <c r="C84" s="11">
         <v>2003</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D84" s="11">
         <v>2004</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="11">
         <v>2005</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="11">
         <v>2006</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="11">
         <v>2007</v>
       </c>
-      <c r="H84" s="13">
+      <c r="H84" s="11">
         <v>2008</v>
       </c>
-      <c r="I84" s="13">
+      <c r="I84" s="11">
         <v>2009</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="11">
         <v>2010</v>
       </c>
-      <c r="K84" s="13">
+      <c r="K84" s="11">
         <v>2011</v>
       </c>
-      <c r="L84" s="13">
+      <c r="L84" s="11">
         <v>2012</v>
       </c>
-      <c r="M84" s="13">
+      <c r="M84" s="11">
         <v>2013</v>
       </c>
-      <c r="N84" s="13">
+      <c r="N84" s="11">
         <v>2014</v>
       </c>
-      <c r="O84" s="13">
+      <c r="O84" s="11">
         <v>2015</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="11">
         <v>2016</v>
       </c>
-      <c r="Q84" s="13">
+      <c r="Q84" s="11">
         <v>2017</v>
       </c>
-      <c r="R84" s="13">
+      <c r="R84" s="11">
         <v>2018</v>
       </c>
-      <c r="S84" s="13">
+      <c r="S84" s="11">
         <v>2019</v>
       </c>
-      <c r="T84" s="13">
+      <c r="T84" s="11">
         <v>2020</v>
       </c>
       <c r="U84" s="1" t="s">
@@ -10431,67 +10450,67 @@
       </c>
     </row>
     <row r="85" spans="1:24">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="19">
+      <c r="B85" s="17">
         <v>1906.5399150000001</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="17">
         <v>1662.7663930000001</v>
       </c>
-      <c r="D85" s="19">
+      <c r="D85" s="17">
         <v>1440.179179</v>
       </c>
-      <c r="E85" s="19">
+      <c r="E85" s="17">
         <v>1438.8150350000001</v>
       </c>
-      <c r="F85" s="19">
+      <c r="F85" s="17">
         <v>1405.100921</v>
       </c>
-      <c r="G85" s="19">
+      <c r="G85" s="17">
         <v>861.32193400000006</v>
       </c>
-      <c r="H85" s="19">
+      <c r="H85" s="17">
         <v>1252.044834</v>
       </c>
-      <c r="I85" s="19">
+      <c r="I85" s="17">
         <v>1166.6401020000001</v>
       </c>
-      <c r="J85" s="19">
+      <c r="J85" s="17">
         <v>1813.436905</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K85" s="17">
         <v>1592.284621</v>
       </c>
-      <c r="L85" s="19">
+      <c r="L85" s="17">
         <v>1537.155647</v>
       </c>
-      <c r="M85" s="19">
+      <c r="M85" s="17">
         <v>1459.0343339999999</v>
       </c>
-      <c r="N85" s="19">
+      <c r="N85" s="17">
         <v>1423.9461980000001</v>
       </c>
-      <c r="O85" s="19">
+      <c r="O85" s="17">
         <v>1210.891768</v>
       </c>
-      <c r="P85" s="19">
+      <c r="P85" s="17">
         <v>1169.900641</v>
       </c>
-      <c r="Q85" s="19">
+      <c r="Q85" s="17">
         <v>987.77510199999995</v>
       </c>
-      <c r="R85" s="19">
+      <c r="R85" s="17">
         <v>944.885986</v>
       </c>
-      <c r="S85" s="19">
+      <c r="S85" s="17">
         <v>814.55539899999997</v>
       </c>
-      <c r="T85" s="19">
+      <c r="T85" s="17">
         <v>789.70346300000006</v>
       </c>
-      <c r="U85" s="20">
+      <c r="U85" s="18">
         <f>AVERAGE(B85:T85)</f>
         <v>1309.314651421053</v>
       </c>
@@ -10509,67 +10528,67 @@
       </c>
     </row>
     <row r="86" spans="1:24">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B86" s="19">
+      <c r="B86" s="17">
         <v>1026.9168560000001</v>
       </c>
-      <c r="C86" s="19">
+      <c r="C86" s="17">
         <v>892.65712199999996</v>
       </c>
-      <c r="D86" s="19">
+      <c r="D86" s="17">
         <v>1030.6607289999999</v>
       </c>
-      <c r="E86" s="19">
+      <c r="E86" s="17">
         <v>879.23539600000004</v>
       </c>
-      <c r="F86" s="19">
+      <c r="F86" s="17">
         <v>693.35806000000002</v>
       </c>
-      <c r="G86" s="19">
+      <c r="G86" s="17">
         <v>203.336277</v>
       </c>
-      <c r="H86" s="19">
+      <c r="H86" s="17">
         <v>836.458123</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="17">
         <v>912.07707600000003</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J86" s="17">
         <v>1145.336969</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K86" s="17">
         <v>1163.9668489999999</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L86" s="17">
         <v>960.46450700000003</v>
       </c>
-      <c r="M86" s="19">
+      <c r="M86" s="17">
         <v>818.92528900000002</v>
       </c>
-      <c r="N86" s="19">
+      <c r="N86" s="17">
         <v>561.23433799999998</v>
       </c>
-      <c r="O86" s="19">
+      <c r="O86" s="17">
         <v>338.97909199999998</v>
       </c>
-      <c r="P86" s="19">
+      <c r="P86" s="17">
         <v>230.02028799999999</v>
       </c>
-      <c r="Q86" s="19">
+      <c r="Q86" s="17">
         <v>162.32499100000001</v>
       </c>
-      <c r="R86" s="19">
+      <c r="R86" s="17">
         <v>92.753787000000003</v>
       </c>
-      <c r="S86" s="19">
+      <c r="S86" s="17">
         <v>63.686374000000001</v>
       </c>
-      <c r="T86" s="19">
+      <c r="T86" s="17">
         <v>67.676625000000001</v>
       </c>
-      <c r="U86" s="20">
+      <c r="U86" s="18">
         <f>AVERAGE(B86:T86)</f>
         <v>635.79309200000012</v>
       </c>
@@ -10587,13 +10606,13 @@
       </c>
     </row>
     <row r="87" spans="1:24">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="19">
+      <c r="B87" s="17">
         <v>1322.745304</v>
       </c>
-      <c r="C87" s="19">
+      <c r="C87" s="17">
         <v>1102.3627320000001</v>
       </c>
       <c r="D87" s="2">
@@ -10605,49 +10624,49 @@
       <c r="F87" s="2">
         <v>1114.903311</v>
       </c>
-      <c r="G87" s="19">
+      <c r="G87" s="17">
         <v>930.01180899999997</v>
       </c>
       <c r="H87" s="2">
         <v>1390.3697010000001</v>
       </c>
-      <c r="I87" s="19">
+      <c r="I87" s="17">
         <v>1347.726629</v>
       </c>
-      <c r="J87" s="19">
+      <c r="J87" s="17">
         <v>2609.0602469999999</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K87" s="17">
         <v>2490.750176</v>
       </c>
-      <c r="L87" s="19">
+      <c r="L87" s="17">
         <v>2580.2146309999998</v>
       </c>
-      <c r="M87" s="19">
+      <c r="M87" s="17">
         <v>2585.957762</v>
       </c>
-      <c r="N87" s="19">
+      <c r="N87" s="17">
         <v>2604.791643</v>
       </c>
-      <c r="O87" s="19">
+      <c r="O87" s="17">
         <v>2525.09681</v>
       </c>
-      <c r="P87" s="19">
+      <c r="P87" s="17">
         <v>2555.343734</v>
       </c>
-      <c r="Q87" s="19">
+      <c r="Q87" s="17">
         <v>2450.7129089999999</v>
       </c>
-      <c r="R87" s="19">
+      <c r="R87" s="17">
         <v>2514.848794</v>
       </c>
-      <c r="S87" s="19">
+      <c r="S87" s="17">
         <v>2494.884775</v>
       </c>
-      <c r="T87" s="19">
+      <c r="T87" s="17">
         <v>2506.0563560000001</v>
       </c>
-      <c r="U87" s="20">
+      <c r="U87" s="18">
         <f>AVERAGE(B87:T87)</f>
         <v>2000.790806</v>
       </c>
@@ -10665,30 +10684,30 @@
       </c>
     </row>
     <row r="88" spans="1:24" ht="10.8" thickBot="1">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="2"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="17"/>
-      <c r="T88" s="17"/>
-      <c r="U88" s="18"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="16"/>
     </row>
     <row r="89" spans="1:24">
-      <c r="U89" s="15"/>
+      <c r="U89" s="13"/>
     </row>
     <row r="91" spans="1:24">
       <c r="V91" s="1" t="s">
@@ -10713,17 +10732,383 @@
         <v>-28.985789279988573</v>
       </c>
     </row>
+    <row r="138" spans="1:24" ht="10.8" thickBot="1"/>
+    <row r="139" spans="1:24" ht="10.8" thickBot="1">
+      <c r="A139" s="3"/>
+      <c r="F139" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="G139" s="22"/>
+      <c r="H139" s="22"/>
+      <c r="I139" s="22"/>
+      <c r="J139" s="22"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="23"/>
+      <c r="M139" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24">
+      <c r="A140" s="10"/>
+      <c r="B140" s="11">
+        <v>2002</v>
+      </c>
+      <c r="C140" s="11">
+        <v>2003</v>
+      </c>
+      <c r="D140" s="11">
+        <v>2004</v>
+      </c>
+      <c r="E140" s="11">
+        <v>2005</v>
+      </c>
+      <c r="F140" s="11">
+        <v>2006</v>
+      </c>
+      <c r="G140" s="11">
+        <v>2007</v>
+      </c>
+      <c r="H140" s="11">
+        <v>2008</v>
+      </c>
+      <c r="I140" s="11">
+        <v>2009</v>
+      </c>
+      <c r="J140" s="11">
+        <v>2010</v>
+      </c>
+      <c r="K140" s="11">
+        <v>2011</v>
+      </c>
+      <c r="L140" s="11">
+        <v>2012</v>
+      </c>
+      <c r="M140" s="11">
+        <v>2013</v>
+      </c>
+      <c r="N140" s="11">
+        <v>2014</v>
+      </c>
+      <c r="O140" s="11">
+        <v>2015</v>
+      </c>
+      <c r="P140" s="11">
+        <v>2016</v>
+      </c>
+      <c r="Q140" s="11">
+        <v>2017</v>
+      </c>
+      <c r="R140" s="11">
+        <v>2018</v>
+      </c>
+      <c r="S140" s="11">
+        <v>2019</v>
+      </c>
+      <c r="T140" s="11">
+        <v>2020</v>
+      </c>
+      <c r="U140" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X140" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24">
+      <c r="A141" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B141" s="17">
+        <v>1906.5399150000001</v>
+      </c>
+      <c r="C141" s="17">
+        <v>1662.7663930000001</v>
+      </c>
+      <c r="D141" s="17">
+        <v>1440.179179</v>
+      </c>
+      <c r="E141" s="17">
+        <v>1438.8150350000001</v>
+      </c>
+      <c r="F141" s="17">
+        <v>1405.100921</v>
+      </c>
+      <c r="G141" s="17">
+        <v>861.32193400000006</v>
+      </c>
+      <c r="H141" s="17">
+        <v>1252.044834</v>
+      </c>
+      <c r="I141" s="17">
+        <v>1166.6401020000001</v>
+      </c>
+      <c r="J141" s="17">
+        <v>1813.436905</v>
+      </c>
+      <c r="K141" s="17">
+        <v>1592.284621</v>
+      </c>
+      <c r="L141" s="17">
+        <v>1537.155647</v>
+      </c>
+      <c r="M141" s="17">
+        <v>1459.0343339999999</v>
+      </c>
+      <c r="N141" s="17">
+        <v>1423.9461980000001</v>
+      </c>
+      <c r="O141" s="17">
+        <v>1210.891768</v>
+      </c>
+      <c r="P141" s="17">
+        <v>1169.900641</v>
+      </c>
+      <c r="Q141" s="17">
+        <v>987.77510199999995</v>
+      </c>
+      <c r="R141" s="17">
+        <v>944.885986</v>
+      </c>
+      <c r="S141" s="17">
+        <v>814.55539899999997</v>
+      </c>
+      <c r="T141" s="20">
+        <v>789.70346300000006</v>
+      </c>
+      <c r="U141" s="18">
+        <f>AVERAGE(B141:T141)</f>
+        <v>1309.314651421053</v>
+      </c>
+      <c r="V141" s="2">
+        <f>AVERAGE(B141:I141)</f>
+        <v>1391.676039125</v>
+      </c>
+      <c r="W141" s="2">
+        <f>AVERAGE(B141:F141,H141:I141)</f>
+        <v>1467.440911285714</v>
+      </c>
+      <c r="X141" s="2">
+        <f>V141*0.49</f>
+        <v>681.92125917124997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24">
+      <c r="A142" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B142" s="2">
+        <v>1906.5399150000001</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1662.7663930000001</v>
+      </c>
+      <c r="D142" s="2">
+        <v>1440.179179</v>
+      </c>
+      <c r="E142" s="2">
+        <v>1438.8150350000001</v>
+      </c>
+      <c r="F142" s="2">
+        <v>1405.100921</v>
+      </c>
+      <c r="G142" s="2">
+        <v>861.32193400000006</v>
+      </c>
+      <c r="H142" s="2">
+        <v>1252.044834</v>
+      </c>
+      <c r="I142" s="2">
+        <v>1166.6401020000001</v>
+      </c>
+      <c r="J142" s="2">
+        <v>1813.436905</v>
+      </c>
+      <c r="K142" s="2">
+        <v>1592.284621</v>
+      </c>
+      <c r="L142" s="2">
+        <v>1537.155647</v>
+      </c>
+      <c r="M142" s="2">
+        <v>1459.0343339999999</v>
+      </c>
+      <c r="N142" s="2">
+        <v>1423.9461980000001</v>
+      </c>
+      <c r="O142" s="2">
+        <v>1210.891768</v>
+      </c>
+      <c r="P142" s="2">
+        <v>1169.900641</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>987.77510199999995</v>
+      </c>
+      <c r="R142" s="2">
+        <v>944.885986</v>
+      </c>
+      <c r="S142" s="2">
+        <v>814.55539899999997</v>
+      </c>
+      <c r="T142" s="19">
+        <v>789.70346300000006</v>
+      </c>
+      <c r="U142" s="18">
+        <f>AVERAGE(B142:T142)</f>
+        <v>1309.314651421053</v>
+      </c>
+      <c r="V142" s="2">
+        <f>AVERAGE(B142:I142)</f>
+        <v>1391.676039125</v>
+      </c>
+      <c r="W142" s="2">
+        <f>AVERAGE(B142:F142,H142:I142)</f>
+        <v>1467.440911285714</v>
+      </c>
+      <c r="X142" s="2">
+        <f>V142*0.49</f>
+        <v>681.92125917124997</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24">
+      <c r="A143" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" s="17">
+        <v>1026.9168560000001</v>
+      </c>
+      <c r="C143" s="17">
+        <v>892.65712199999996</v>
+      </c>
+      <c r="D143" s="17">
+        <v>1030.6607289999999</v>
+      </c>
+      <c r="E143" s="17">
+        <v>879.23539600000004</v>
+      </c>
+      <c r="F143" s="17">
+        <v>693.35806000000002</v>
+      </c>
+      <c r="G143" s="17">
+        <v>203.336277</v>
+      </c>
+      <c r="H143" s="17">
+        <v>836.458123</v>
+      </c>
+      <c r="I143" s="17">
+        <v>912.07707600000003</v>
+      </c>
+      <c r="J143" s="17">
+        <v>1145.336969</v>
+      </c>
+      <c r="K143" s="17">
+        <v>1163.9668489999999</v>
+      </c>
+      <c r="L143" s="17">
+        <v>960.46450700000003</v>
+      </c>
+      <c r="M143" s="17">
+        <v>818.92528900000002</v>
+      </c>
+      <c r="N143" s="17">
+        <v>561.23433799999998</v>
+      </c>
+      <c r="O143" s="17">
+        <v>338.97909199999998</v>
+      </c>
+      <c r="P143" s="17">
+        <v>230.02028799999999</v>
+      </c>
+      <c r="Q143" s="17">
+        <v>162.32499100000001</v>
+      </c>
+      <c r="R143" s="17">
+        <v>92.753787000000003</v>
+      </c>
+      <c r="S143" s="17">
+        <v>63.686374000000001</v>
+      </c>
+      <c r="T143" s="17">
+        <v>67.676625000000001</v>
+      </c>
+      <c r="U143" s="18">
+        <f>AVERAGE(B143:T143)</f>
+        <v>635.79309200000012</v>
+      </c>
+      <c r="V143" s="2">
+        <f t="shared" ref="V143" si="13">AVERAGE(B143:I143)</f>
+        <v>809.33745487500005</v>
+      </c>
+      <c r="W143" s="2">
+        <f t="shared" ref="W143" si="14">AVERAGE(B143:F143,H143:I143)</f>
+        <v>895.90905171428574</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24">
+      <c r="A144" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1026.9168560000001</v>
+      </c>
+      <c r="C144" s="2">
+        <v>892.65712199999996</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2">
+        <v>879.23539600000004</v>
+      </c>
+      <c r="F144" s="2">
+        <v>693.35806000000002</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2">
+        <v>912.07707600000003</v>
+      </c>
+      <c r="J144" s="2">
+        <v>1145.336969</v>
+      </c>
+      <c r="K144" s="2">
+        <v>1163.9668489999999</v>
+      </c>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2">
+        <v>561.23433799999998</v>
+      </c>
+      <c r="O144" s="2">
+        <v>338.97909199999998</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2">
+        <v>63.686374000000001</v>
+      </c>
+      <c r="T144" s="2">
+        <v>67.676625000000001</v>
+      </c>
+      <c r="U144" s="18"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="F83:L83"/>
-    <mergeCell ref="B76:T76"/>
-    <mergeCell ref="D54:V54"/>
-    <mergeCell ref="C28:L28"/>
+  <mergeCells count="10">
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D22:K22"/>
     <mergeCell ref="D47:V47"/>
+    <mergeCell ref="F139:L139"/>
+    <mergeCell ref="F83:L83"/>
+    <mergeCell ref="B76:T76"/>
+    <mergeCell ref="D54:V54"/>
+    <mergeCell ref="C28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -10733,150 +11118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:L9"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="2" width="9.109375" style="6"/>
-    <col min="3" max="3" width="18.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="3:12">
-      <c r="C4" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="3:12">
-      <c r="C5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>2002</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2003</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2004</v>
-      </c>
-      <c r="G5" s="7">
-        <v>2005</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2006</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2007</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2008</v>
-      </c>
-      <c r="K5" s="7">
-        <v>2009</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="3:12">
-      <c r="C6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="8">
-        <f>AVERAGE(D6:K6)</f>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="3:12">
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="8" t="e">
-        <f>AVERAGE(D7:K7)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12">
-      <c r="C8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="8" t="e">
-        <f t="shared" ref="L8:L9" si="0">AVERAGE(D8:K8)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12">
-      <c r="C9" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C4:L4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
@@ -10887,17 +11132,17 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:22">
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="3:22">
@@ -11153,7 +11398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR13"/>
   <sheetViews>

--- a/docs/UNCEM_AS.xlsx
+++ b/docs/UNCEM_AS.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="3300"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="16608" windowHeight="3300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Madonie_GPP" sheetId="1" r:id="rId1"/>
     <sheet name="Titerno_GPP" sheetId="2" r:id="rId2"/>
     <sheet name="Dati_cella_alessioCMCC" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_851_124_2008" localSheetId="2">Dati_cella_alessioCMCC!$A$1:$I$13</definedName>
@@ -18,6 +19,25 @@
     <definedName name="_851_124_2011" localSheetId="2">Dati_cella_alessioCMCC!$X$1:$AD$13</definedName>
     <definedName name="_851_124_2012" localSheetId="2">Dati_cella_alessioCMCC!$AE$1:$AK$13</definedName>
     <definedName name="_851_124_2013" localSheetId="2">Dati_cella_alessioCMCC!$AL$1:$AR$13</definedName>
+    <definedName name="GPP_sum_2002" localSheetId="3">Foglio1!$A$1:$E$5</definedName>
+    <definedName name="GPP_sum_2003" localSheetId="3">Foglio1!$A$6:$E$10</definedName>
+    <definedName name="GPP_sum_2004" localSheetId="3">Foglio1!$A$11:$E$15</definedName>
+    <definedName name="GPP_sum_2005" localSheetId="3">Foglio1!$A$16:$E$20</definedName>
+    <definedName name="GPP_sum_2006" localSheetId="3">Foglio1!$A$21:$E$25</definedName>
+    <definedName name="GPP_sum_2007" localSheetId="3">Foglio1!$A$26:$E$30</definedName>
+    <definedName name="GPP_sum_2008" localSheetId="3">Foglio1!$A$31:$E$35</definedName>
+    <definedName name="GPP_sum_2009" localSheetId="3">Foglio1!$A$36:$E$40</definedName>
+    <definedName name="GPP_sum_2010" localSheetId="3">Foglio1!$A$41:$E$45</definedName>
+    <definedName name="GPP_sum_2011" localSheetId="3">Foglio1!$A$46:$E$50</definedName>
+    <definedName name="GPP_sum_2012" localSheetId="3">Foglio1!$A$51:$E$55</definedName>
+    <definedName name="GPP_sum_2013" localSheetId="3">Foglio1!$A$56:$E$60</definedName>
+    <definedName name="GPP_sum_2014" localSheetId="3">Foglio1!$A$61:$E$65</definedName>
+    <definedName name="GPP_sum_2015" localSheetId="3">Foglio1!$A$66:$E$70</definedName>
+    <definedName name="GPP_sum_2016" localSheetId="3">Foglio1!$A$71:$E$75</definedName>
+    <definedName name="GPP_sum_2017" localSheetId="3">Foglio1!$A$76:$E$80</definedName>
+    <definedName name="GPP_sum_2018" localSheetId="3">Foglio1!$A$81:$E$85</definedName>
+    <definedName name="GPP_sum_2019" localSheetId="3">Foglio1!$A$86:$E$90</definedName>
+    <definedName name="GPP_sum_2020" localSheetId="3">Foglio1!$A$91:$E$95</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -115,11 +135,220 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="7" name="GPP_sum_2002" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2002.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="8" name="GPP_sum_2003" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2003.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="9" name="GPP_sum_2004" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2004.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="10" name="GPP_sum_2005" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2005.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="11" name="GPP_sum_2006" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2006.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="GPP_sum_2007" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2007.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" name="GPP_sum_2008" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2008.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="GPP_sum_2009" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2009.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="GPP_sum_2010" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2010.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="16" name="GPP_sum_2011" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2011.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="17" name="GPP_sum_2012" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2012.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="18" name="GPP_sum_2013" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2013.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="19" name="GPP_sum_2014" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2014.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="20" name="GPP_sum_2015" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2015.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="21" name="GPP_sum_2016" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2016.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" name="GPP_sum_2017" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2017.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="23" name="GPP_sum_2018" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2018.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="24" name="GPP_sum_2019" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2019.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="25" name="GPP_sum_2020" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2020.txt">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="73">
   <si>
     <t>quercus_deciduous</t>
   </si>
@@ -240,13 +469,113 @@
   <si>
     <t>Fagus2013</t>
   </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2002.tif</t>
+  </si>
+  <si>
+    <t>Dims: Full Scene (1,223,543 points)</t>
+  </si>
+  <si>
+    <t>Basic Stats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       Mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Stdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Band 1</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2003.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2004.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Min</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2005.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Mean</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2006.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2007.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2008.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Min</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2009.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2010.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Stdev</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2011.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2012.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2013.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2014.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2015.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2016.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2017.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2018.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2019.tif</t>
+  </si>
+  <si>
+    <t>Filename: C:\Users\Alessandro Scremin\Documents\PROGETTI\ForSE\testData\TAMMARO_TITERNO\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\TITERNO-TAMMARO_30m_2002-2020_20130110000006_output_GPP_sum\GPP_sum_2020.tif</t>
+  </si>
+  <si>
+    <t>Tammaro_Titerno</t>
+  </si>
+  <si>
+    <t>GPP_Deciduous</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
+    <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -439,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -461,6 +790,12 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -470,15 +805,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -516,8 +846,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="6.6862914736492432E-2"/>
-          <c:y val="0.259733887430737"/>
-          <c:w val="0.69938650575492756"/>
+          <c:y val="0.25973388743073694"/>
+          <c:w val="0.69938650575492745"/>
           <c:h val="0.60113808690580361"/>
         </c:manualLayout>
       </c:layout>
@@ -860,25 +1190,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88246528"/>
-        <c:axId val="88563712"/>
+        <c:axId val="86075648"/>
+        <c:axId val="86097920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88246528"/>
+        <c:axId val="86075648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88563712"/>
+        <c:crossAx val="86097920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88563712"/>
+        <c:axId val="86097920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +1216,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88246528"/>
+        <c:crossAx val="86075648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -898,7 +1228,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1341,23 +1671,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77855360"/>
-        <c:axId val="78385536"/>
+        <c:axId val="87974272"/>
+        <c:axId val="87975808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77855360"/>
+        <c:axId val="87974272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78385536"/>
+        <c:crossAx val="87975808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78385536"/>
+        <c:axId val="87975808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,20 +1695,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77855360"/>
+        <c:crossAx val="87974272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1405,7 +1734,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1639,23 +1967,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="78435840"/>
-        <c:axId val="78437376"/>
+        <c:axId val="87989248"/>
+        <c:axId val="87823104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="78435840"/>
+        <c:axId val="87989248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78437376"/>
+        <c:crossAx val="87823104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78437376"/>
+        <c:axId val="87823104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,20 +1991,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78435840"/>
+        <c:crossAx val="87989248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1990,23 +2317,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79651200"/>
-        <c:axId val="79652736"/>
+        <c:axId val="87865216"/>
+        <c:axId val="87866752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79651200"/>
+        <c:axId val="87865216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79652736"/>
+        <c:crossAx val="87866752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79652736"/>
+        <c:axId val="87866752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2341,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79651200"/>
+        <c:crossAx val="87865216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2027,7 +2354,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2053,7 +2380,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2485,11 +2811,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="79669888"/>
-        <c:axId val="79692160"/>
+        <c:axId val="89092480"/>
+        <c:axId val="89094016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79669888"/>
+        <c:axId val="89092480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2020"/>
@@ -2498,12 +2824,12 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79692160"/>
+        <c:crossAx val="89094016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79692160"/>
+        <c:axId val="89094016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,20 +2837,19 @@
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79669888"/>
+        <c:crossAx val="89092480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2821,11 +3146,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79814656"/>
-        <c:axId val="79816192"/>
+        <c:axId val="89187840"/>
+        <c:axId val="89189376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79814656"/>
+        <c:axId val="89187840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +3158,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79816192"/>
+        <c:crossAx val="89189376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2841,7 +3166,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79816192"/>
+        <c:axId val="89189376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +3192,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79814656"/>
+        <c:crossAx val="89187840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2893,7 +3218,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3080,23 +3405,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80909056"/>
-        <c:axId val="80910592"/>
+        <c:axId val="89872640"/>
+        <c:axId val="89882624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80909056"/>
+        <c:axId val="89872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80910592"/>
+        <c:crossAx val="89882624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80910592"/>
+        <c:axId val="89882624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3429,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80909056"/>
+        <c:crossAx val="89872640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3117,7 +3442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3251,23 +3576,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="80951168"/>
-        <c:axId val="80952704"/>
+        <c:axId val="89890176"/>
+        <c:axId val="89912448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="80951168"/>
+        <c:axId val="89890176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80952704"/>
+        <c:crossAx val="89912448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="80952704"/>
+        <c:axId val="89912448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3600,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80951168"/>
+        <c:crossAx val="89890176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3288,13 +3613,218 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Titerno_GPP!$A$52</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPP_Deciduous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Titerno_GPP!$B$51:$T$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Titerno_GPP!$B$52:$T$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1029.9091069999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1251.926741</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1364.766973</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>971.25907400000006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1017.59983</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>982.594022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1002.3659259999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1114.6256760000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1763.7311580000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1652.263888</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1728.4995759999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1733.0221449999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1735.902153</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1714.1406119999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1765.273862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1606.4210619999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1701.052316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700.706394</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1705.483289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="69207552"/>
+        <c:axId val="69206016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="69207552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69206016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="69206016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69207552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="it-IT"/>
   <c:chart>
@@ -3557,24 +4087,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85335040"/>
-        <c:axId val="85345024"/>
+        <c:axId val="90145536"/>
+        <c:axId val="90147072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85335040"/>
+        <c:axId val="90145536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85345024"/>
+        <c:crossAx val="90147072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85345024"/>
+        <c:axId val="90147072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +4112,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85335040"/>
+        <c:crossAx val="90145536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3594,556 +4124,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="it-IT"/>
-  <c:chart>
-    <c:title/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369523"/>
-          <c:w val="0.79627780721145369"/>
-          <c:h val="0.68921660834062359"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>18.6785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1358099999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.347200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7804099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.030799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3293499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0283000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.640900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.240700000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.832599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.216700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.50800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.827500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.662400000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.911699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4590499999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3605600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0444100000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>135.429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>267.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.581699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.486599999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>31.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Precip</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="72"/>
-                <c:pt idx="0">
-                  <c:v>18.6785</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9.1358099999999993</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37.347200000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.7804099999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>21.030799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3293499999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0283000000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41.640900000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.240700000000004</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>45.832599999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>65.216700000000003</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>172.50800000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>169.77500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>62.827500000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>72.662400000000005</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>66.911699999999996</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4590499999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>28.3828</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.3605600000000004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0444100000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>135.429</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>267.08300000000003</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>33.581699999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>78.486599999999996</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>54.1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>30.4</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>12.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>48.2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>78.2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>167.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>56.7</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>35.4</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>33.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>22.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>18.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>21.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>78.099999999999994</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>12.2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>30.1</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>98.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>59.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>56.8</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>59.2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>29.7</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>32.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>12.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>31.3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="85369984"/>
-        <c:axId val="85371520"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="85369984"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85371520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="85371520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85369984"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4161,7 +4142,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369528"/>
+          <c:y val="0.19943314377369525"/>
           <c:w val="0.79627780721145369"/>
           <c:h val="0.68921660834062359"/>
         </c:manualLayout>
@@ -4169,15 +4150,15 @@
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dati_cella_alessioCMCC!$D$1</c:f>
+              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ta_f</c:v>
+                  <c:v>Precip</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4187,249 +4168,492 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>(Dati_cella_alessioCMCC!$D$2:$D$13,Dati_cella_alessioCMCC!$K$2:$K$13,Dati_cella_alessioCMCC!$R$2:$R$13,Dati_cella_alessioCMCC!$Y$2:$Y$13,Dati_cella_alessioCMCC!$AF$2:$AF$13,Dati_cella_alessioCMCC!$AM$2:$AM$13)</c:f>
+              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="72"/>
                 <c:pt idx="0">
-                  <c:v>11.055999999999999</c:v>
+                  <c:v>18.6785</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.635999999999999</c:v>
+                  <c:v>9.1358099999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.125999999999999</c:v>
+                  <c:v>37.347200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.795999999999999</c:v>
+                  <c:v>9.7804099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.166</c:v>
+                  <c:v>21.030799999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.975999999999999</c:v>
+                  <c:v>7.3293499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24.506</c:v>
+                  <c:v>2.0283000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25.175999999999998</c:v>
+                  <c:v>41.640900000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.986000000000001</c:v>
+                  <c:v>74.240700000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>19.076000000000001</c:v>
+                  <c:v>45.832599999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.906000000000001</c:v>
+                  <c:v>65.216700000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.756</c:v>
+                  <c:v>172.50800000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11.476000000000001</c:v>
+                  <c:v>169.77500000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.9960000000000004</c:v>
+                  <c:v>62.827500000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.426</c:v>
+                  <c:v>72.662400000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13.416</c:v>
+                  <c:v>66.911699999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18.085999999999999</c:v>
+                  <c:v>8.4590499999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20.966000000000001</c:v>
+                  <c:v>28.3828</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.545999999999999</c:v>
+                  <c:v>4.3605600000000004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.765999999999998</c:v>
+                  <c:v>6.0444100000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21.795999999999999</c:v>
+                  <c:v>135.429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>18.466000000000001</c:v>
+                  <c:v>267.08300000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15.706</c:v>
+                  <c:v>33.581699999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13.125999999999999</c:v>
+                  <c:v>78.486599999999996</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.7</c:v>
+                  <c:v>15.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.6</c:v>
+                  <c:v>54.1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7</c:v>
+                  <c:v>23.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>10.7</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>14.1</c:v>
+                  <c:v>30.4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>19.100000000000001</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>21.4</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>22.7</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>17.600000000000001</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>16.600000000000001</c:v>
+                  <c:v>48.2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>10.9</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9</c:v>
+                  <c:v>78.2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.4</c:v>
+                  <c:v>167.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="38">
+                  <c:v>56.7</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>21.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>7.5</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precip</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$G$2:$G$13,Dati_cella_alessioCMCC!$N$2:$N$13,Dati_cella_alessioCMCC!$U$2:$U$13,Dati_cella_alessioCMCC!$AB$2:$AB$13,Dati_cella_alessioCMCC!$AI$2:$AI$13,Dati_cella_alessioCMCC!$AP$2:$AP$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>18.6785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.1358099999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.347200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7804099999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.030799999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3293499999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0283000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41.640900000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.240700000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.832599999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.216700000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172.50800000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>169.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.827500000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.662400000000005</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>66.911699999999996</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.4590499999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>28.3828</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.3605600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0444100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.429</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>267.08300000000003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.581699999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>78.486599999999996</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>48.2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78.2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>167.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56.7</c:v>
+                </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.8000000000000007</c:v>
+                  <c:v>35.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>14.5</c:v>
+                  <c:v>33.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>19.8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>23.1</c:v>
+                  <c:v>22.2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>24.7</c:v>
+                  <c:v>18.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>20.6</c:v>
+                  <c:v>21.8</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>78.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>12.2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.7</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>98.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>36.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>59.2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.7</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>12.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>16.7</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>12.9</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.8000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>19.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>23.9</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>23.1</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>16.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.7</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>8.1999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>8.5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>15.8</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>20.7</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>22.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>23.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>22.4</c:v>
-                </c:pt>
                 <c:pt idx="69">
-                  <c:v>16.7</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>13.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>8.9</c:v>
+                  <c:v>31.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="85387904"/>
-        <c:axId val="88162688"/>
+        <c:axId val="90163840"/>
+        <c:axId val="90169728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="85387904"/>
+        <c:axId val="90163840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88162688"/>
+        <c:crossAx val="90169728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88162688"/>
+        <c:axId val="90169728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,7 +4661,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85387904"/>
+        <c:crossAx val="90163840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4449,7 +4673,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4685,25 +4909,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100325248"/>
-        <c:axId val="100326784"/>
+        <c:axId val="86001920"/>
+        <c:axId val="86024192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100325248"/>
+        <c:axId val="86001920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100326784"/>
+        <c:crossAx val="86024192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100326784"/>
+        <c:axId val="86024192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4729,7 +4953,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100325248"/>
+        <c:crossAx val="86001920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4741,7 +4965,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4759,7 +4983,313 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.8580484863985976E-2"/>
-          <c:y val="0.19943314377369534"/>
+          <c:y val="0.19943314377369531"/>
+          <c:w val="0.79627780721145369"/>
+          <c:h val="0.68921660834062359"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Dati_cella_alessioCMCC!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Ta_f</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>(Dati_cella_alessioCMCC!$D$2:$D$13,Dati_cella_alessioCMCC!$K$2:$K$13,Dati_cella_alessioCMCC!$R$2:$R$13,Dati_cella_alessioCMCC!$Y$2:$Y$13,Dati_cella_alessioCMCC!$AF$2:$AF$13,Dati_cella_alessioCMCC!$AM$2:$AM$13)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="72"/>
+                <c:pt idx="0">
+                  <c:v>11.055999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.635999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.166</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20.975999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.506</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.175999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.986000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.076000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.906000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.756</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.476000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.9960000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13.416</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.085999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.966000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.545999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.765999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.795999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>18.466000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.706</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>13.125999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>24.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>23.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>23.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>8.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="90202496"/>
+        <c:axId val="90204032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="90202496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90204032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="90204032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="90202496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="it-IT"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8580484863985976E-2"/>
+          <c:y val="0.19943314377369536"/>
           <c:w val="0.79627780721145369"/>
           <c:h val="0.68921660834062359"/>
         </c:manualLayout>
@@ -5010,24 +5540,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="88170496"/>
-        <c:axId val="88172032"/>
+        <c:axId val="90232320"/>
+        <c:axId val="90233856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88170496"/>
+        <c:axId val="90232320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88172032"/>
+        <c:crossAx val="90233856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88172032"/>
+        <c:axId val="90233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5035,7 +5565,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88170496"/>
+        <c:crossAx val="90232320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5047,7 +5577,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5427,11 +5957,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="100948608"/>
-        <c:axId val="100995840"/>
+        <c:axId val="86252928"/>
+        <c:axId val="86262912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100948608"/>
+        <c:axId val="86252928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5439,7 +5969,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100995840"/>
+        <c:crossAx val="86262912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5447,7 +5977,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100995840"/>
+        <c:axId val="86262912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5472,7 +6002,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100948608"/>
+        <c:crossAx val="86252928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5497,7 +6027,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5865,11 +6395,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="143574528"/>
-        <c:axId val="143576064"/>
+        <c:axId val="86302080"/>
+        <c:axId val="86316160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="143574528"/>
+        <c:axId val="86302080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5877,7 +6407,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143576064"/>
+        <c:crossAx val="86316160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5885,7 +6415,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="143576064"/>
+        <c:axId val="86316160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5910,7 +6440,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="143574528"/>
+        <c:crossAx val="86302080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5935,7 +6465,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6303,11 +6833,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76113408"/>
-        <c:axId val="76114944"/>
+        <c:axId val="86343040"/>
+        <c:axId val="86353024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76113408"/>
+        <c:axId val="86343040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6315,7 +6845,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76114944"/>
+        <c:crossAx val="86353024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6323,7 +6853,7 @@
         <c:tickLblSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76114944"/>
+        <c:axId val="86353024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6348,7 +6878,7 @@
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76113408"/>
+        <c:crossAx val="86343040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6373,7 +6903,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6614,39 +7144,38 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="77012992"/>
-        <c:axId val="77014528"/>
+        <c:axId val="86402944"/>
+        <c:axId val="86404480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="77012992"/>
+        <c:axId val="86402944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77014528"/>
+        <c:crossAx val="86404480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77014528"/>
+        <c:axId val="86404480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77012992"/>
+        <c:crossAx val="86402944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -6662,7 +7191,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6853,23 +7382,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77024640"/>
-        <c:axId val="77030528"/>
+        <c:axId val="86423040"/>
+        <c:axId val="86424576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77024640"/>
+        <c:axId val="86423040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77030528"/>
+        <c:crossAx val="86424576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77030528"/>
+        <c:axId val="86424576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6877,7 +7406,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77024640"/>
+        <c:crossAx val="86423040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6889,7 +7418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6915,7 +7444,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout>
@@ -6925,7 +7453,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.10015507436570428"/>
           <c:y val="0.10753766728940076"/>
-          <c:w val="0.71317294595774405"/>
+          <c:w val="0.71317294595774383"/>
           <c:h val="0.75141610619674859"/>
         </c:manualLayout>
       </c:layout>
@@ -7381,23 +7909,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="77056256"/>
-        <c:axId val="77799424"/>
+        <c:axId val="87888256"/>
+        <c:axId val="87889792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77056256"/>
+        <c:axId val="87888256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77799424"/>
+        <c:crossAx val="87889792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77799424"/>
+        <c:axId val="87889792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7405,20 +7933,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77056256"/>
+        <c:crossAx val="87888256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7661,23 +8188,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="77836672"/>
-        <c:axId val="77838208"/>
+        <c:axId val="87926656"/>
+        <c:axId val="87928192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="77836672"/>
+        <c:axId val="87926656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77838208"/>
+        <c:crossAx val="87928192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="77838208"/>
+        <c:axId val="87928192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7685,7 +8212,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77836672"/>
+        <c:crossAx val="87926656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7698,7 +8225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8191,6 +8718,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8320,27 +8877,103 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2011" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2005" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2006" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2007" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2008" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2009" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2010" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2011" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2012" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2013" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2014" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2010" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2015" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2016" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2017" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2018" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2019" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2020" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2009" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2013" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2012" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2011" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2002" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2010" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2003" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2009" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="851_124_2008" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GPP_sum_2004" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8630,7 +9263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:X144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A120" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U144" sqref="U144"/>
     </sheetView>
   </sheetViews>
@@ -8648,16 +9281,16 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:12">
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="3:12">
       <c r="C5" s="1" t="s">
@@ -8824,16 +9457,16 @@
       </c>
     </row>
     <row r="10" spans="3:12">
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="1" t="s">
@@ -9001,16 +9634,16 @@
     </row>
     <row r="16" spans="3:12">
       <c r="C16" s="3"/>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="3:14">
@@ -9179,16 +9812,16 @@
     </row>
     <row r="22" spans="3:14">
       <c r="C22" s="3"/>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="3:14">
@@ -9356,18 +9989,18 @@
       </c>
     </row>
     <row r="28" spans="3:14" ht="10.8" thickBot="1">
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" spans="3:14">
       <c r="C29" s="3" t="s">
@@ -9612,27 +10245,27 @@
       </c>
     </row>
     <row r="47" spans="3:23">
-      <c r="D47" s="24" t="s">
+      <c r="D47" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
     </row>
     <row r="48" spans="3:23">
       <c r="C48" s="3" t="s">
@@ -9903,27 +10536,27 @@
       </c>
     </row>
     <row r="54" spans="3:23">
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
-      <c r="U54" s="24"/>
-      <c r="V54" s="24"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
     </row>
     <row r="55" spans="3:23">
       <c r="C55" s="3" t="s">
@@ -10072,27 +10705,27 @@
       </c>
     </row>
     <row r="76" spans="1:21">
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="24"/>
-      <c r="P76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="21"/>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+      <c r="O76" s="21"/>
+      <c r="P76" s="21"/>
+      <c r="Q76" s="21"/>
+      <c r="R76" s="21"/>
+      <c r="S76" s="21"/>
+      <c r="T76" s="21"/>
     </row>
     <row r="77" spans="1:21">
       <c r="A77" s="3" t="s">
@@ -10367,15 +11000,15 @@
     </row>
     <row r="83" spans="1:24" ht="10.8" thickBot="1">
       <c r="A83" s="3"/>
-      <c r="F83" s="21" t="s">
+      <c r="F83" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
-      <c r="K83" s="22"/>
-      <c r="L83" s="23"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="25"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" s="10"/>
@@ -10735,15 +11368,15 @@
     <row r="138" spans="1:24" ht="10.8" thickBot="1"/>
     <row r="139" spans="1:24" ht="10.8" thickBot="1">
       <c r="A139" s="3"/>
-      <c r="F139" s="21" t="s">
+      <c r="F139" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G139" s="22"/>
-      <c r="H139" s="22"/>
-      <c r="I139" s="22"/>
-      <c r="J139" s="22"/>
-      <c r="K139" s="22"/>
-      <c r="L139" s="23"/>
+      <c r="G139" s="24"/>
+      <c r="H139" s="24"/>
+      <c r="I139" s="24"/>
+      <c r="J139" s="24"/>
+      <c r="K139" s="24"/>
+      <c r="L139" s="25"/>
       <c r="M139" s="1" t="s">
         <v>38</v>
       </c>
@@ -11099,16 +11732,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="F139:L139"/>
+    <mergeCell ref="F83:L83"/>
+    <mergeCell ref="B76:T76"/>
+    <mergeCell ref="D54:V54"/>
+    <mergeCell ref="C28:L28"/>
     <mergeCell ref="D4:K4"/>
     <mergeCell ref="D10:K10"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D22:K22"/>
     <mergeCell ref="D47:V47"/>
-    <mergeCell ref="F139:L139"/>
-    <mergeCell ref="F83:L83"/>
-    <mergeCell ref="B76:T76"/>
-    <mergeCell ref="D54:V54"/>
-    <mergeCell ref="C28:L28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11118,17 +11751,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:V16"/>
+  <dimension ref="A4:V52"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="6"/>
-    <col min="3" max="3" width="19.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.109375" style="6"/>
+    <col min="1" max="1" width="18" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="20" width="17.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:22">
@@ -11386,6 +12025,132 @@
       <c r="K16" s="6">
         <f>AVERAGE(D15:K15)</f>
         <v>2031.174713875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="B51" s="6">
+        <v>2002</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2003</v>
+      </c>
+      <c r="D51" s="6">
+        <v>2004</v>
+      </c>
+      <c r="E51" s="6">
+        <v>2005</v>
+      </c>
+      <c r="F51" s="6">
+        <v>2006</v>
+      </c>
+      <c r="G51" s="6">
+        <v>2007</v>
+      </c>
+      <c r="H51" s="6">
+        <v>2008</v>
+      </c>
+      <c r="I51" s="6">
+        <v>2009</v>
+      </c>
+      <c r="J51" s="6">
+        <v>2010</v>
+      </c>
+      <c r="K51" s="6">
+        <v>2011</v>
+      </c>
+      <c r="L51" s="6">
+        <v>2012</v>
+      </c>
+      <c r="M51" s="6">
+        <v>2013</v>
+      </c>
+      <c r="N51" s="6">
+        <v>2014</v>
+      </c>
+      <c r="O51" s="6">
+        <v>2015</v>
+      </c>
+      <c r="P51" s="6">
+        <v>2016</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>2017</v>
+      </c>
+      <c r="R51" s="6">
+        <v>2018</v>
+      </c>
+      <c r="S51" s="6">
+        <v>2019</v>
+      </c>
+      <c r="T51" s="6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="27">
+        <v>1029.9091069999999</v>
+      </c>
+      <c r="C52" s="27">
+        <v>1251.926741</v>
+      </c>
+      <c r="D52" s="27">
+        <v>1364.766973</v>
+      </c>
+      <c r="E52" s="27">
+        <v>971.25907400000006</v>
+      </c>
+      <c r="F52" s="27">
+        <v>1017.59983</v>
+      </c>
+      <c r="G52" s="27">
+        <v>982.594022</v>
+      </c>
+      <c r="H52" s="27">
+        <v>1002.3659259999999</v>
+      </c>
+      <c r="I52" s="27">
+        <v>1114.6256760000001</v>
+      </c>
+      <c r="J52" s="27">
+        <v>1763.7311580000001</v>
+      </c>
+      <c r="K52" s="27">
+        <v>1652.263888</v>
+      </c>
+      <c r="L52" s="27">
+        <v>1728.4995759999999</v>
+      </c>
+      <c r="M52" s="27">
+        <v>1733.0221449999999</v>
+      </c>
+      <c r="N52" s="27">
+        <v>1735.902153</v>
+      </c>
+      <c r="O52" s="27">
+        <v>1714.1406119999999</v>
+      </c>
+      <c r="P52" s="27">
+        <v>1765.273862</v>
+      </c>
+      <c r="Q52" s="27">
+        <v>1606.4210619999999</v>
+      </c>
+      <c r="R52" s="27">
+        <v>1701.052316</v>
+      </c>
+      <c r="S52" s="27">
+        <v>1700.706394</v>
+      </c>
+      <c r="T52" s="27">
+        <v>1705.483289</v>
       </c>
     </row>
   </sheetData>
@@ -13200,4 +13965,1000 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T100"/>
+  <sheetViews>
+    <sheetView topLeftCell="F91" workbookViewId="0">
+      <selection activeCell="A98" sqref="A98:T100"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>114.282692</v>
+      </c>
+      <c r="C5">
+        <v>1843.1501459999999</v>
+      </c>
+      <c r="D5">
+        <v>1029.9091069999999</v>
+      </c>
+      <c r="E5">
+        <v>266.68249400000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10">
+        <v>127.00720200000001</v>
+      </c>
+      <c r="C10">
+        <v>2132.7172850000002</v>
+      </c>
+      <c r="D10">
+        <v>1251.926741</v>
+      </c>
+      <c r="E10">
+        <v>381.79288100000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15">
+        <v>59.895598999999997</v>
+      </c>
+      <c r="C15">
+        <v>2040.949707</v>
+      </c>
+      <c r="D15">
+        <v>1364.766973</v>
+      </c>
+      <c r="E15">
+        <v>334.00584700000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>85.988495</v>
+      </c>
+      <c r="C20">
+        <v>1584.2825929999999</v>
+      </c>
+      <c r="D20">
+        <v>971.25907400000006</v>
+      </c>
+      <c r="E20">
+        <v>276.29641800000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>65.468001999999998</v>
+      </c>
+      <c r="C25">
+        <v>1607.751831</v>
+      </c>
+      <c r="D25">
+        <v>1017.59983</v>
+      </c>
+      <c r="E25">
+        <v>310.63301999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>56.115989999999996</v>
+      </c>
+      <c r="C30">
+        <v>1705.1755370000001</v>
+      </c>
+      <c r="D30">
+        <v>982.594022</v>
+      </c>
+      <c r="E30">
+        <v>284.492751</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>44</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35">
+        <v>7.7229799999999997</v>
+      </c>
+      <c r="C35">
+        <v>1605.1240230000001</v>
+      </c>
+      <c r="D35">
+        <v>1002.3659259999999</v>
+      </c>
+      <c r="E35">
+        <v>264.33461299999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>45.046101</v>
+      </c>
+      <c r="C40">
+        <v>1754.7148440000001</v>
+      </c>
+      <c r="D40">
+        <v>1114.6256760000001</v>
+      </c>
+      <c r="E40">
+        <v>291.38794200000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45">
+        <v>1253.6513669999999</v>
+      </c>
+      <c r="C45">
+        <v>1885.600952</v>
+      </c>
+      <c r="D45">
+        <v>1763.7311580000001</v>
+      </c>
+      <c r="E45">
+        <v>71.951137000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>1305.9025879999999</v>
+      </c>
+      <c r="C50">
+        <v>1765.147095</v>
+      </c>
+      <c r="D50">
+        <v>1652.263888</v>
+      </c>
+      <c r="E50">
+        <v>83.495788000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55">
+        <v>1259.5939940000001</v>
+      </c>
+      <c r="C55">
+        <v>1828.5736079999999</v>
+      </c>
+      <c r="D55">
+        <v>1728.4995759999999</v>
+      </c>
+      <c r="E55">
+        <v>64.422312000000005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60">
+        <v>1285.695557</v>
+      </c>
+      <c r="C60">
+        <v>1830.6789550000001</v>
+      </c>
+      <c r="D60">
+        <v>1733.0221449999999</v>
+      </c>
+      <c r="E60">
+        <v>80.245699999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B64" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>1282.7985839999999</v>
+      </c>
+      <c r="C65">
+        <v>1829.4794919999999</v>
+      </c>
+      <c r="D65">
+        <v>1735.902153</v>
+      </c>
+      <c r="E65">
+        <v>68.011379000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>42</v>
+      </c>
+      <c r="B69" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" t="s">
+        <v>45</v>
+      </c>
+      <c r="E69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>47</v>
+      </c>
+      <c r="B70">
+        <v>1292.5187989999999</v>
+      </c>
+      <c r="C70">
+        <v>1812.938721</v>
+      </c>
+      <c r="D70">
+        <v>1714.1406119999999</v>
+      </c>
+      <c r="E70">
+        <v>71.451496000000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" t="s">
+        <v>44</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>47</v>
+      </c>
+      <c r="B75">
+        <v>1385.9575199999999</v>
+      </c>
+      <c r="C75">
+        <v>1856.548462</v>
+      </c>
+      <c r="D75">
+        <v>1765.273862</v>
+      </c>
+      <c r="E75">
+        <v>63.086395000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>42</v>
+      </c>
+      <c r="B79" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" t="s">
+        <v>44</v>
+      </c>
+      <c r="D79" t="s">
+        <v>45</v>
+      </c>
+      <c r="E79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="B80">
+        <v>1319.3695070000001</v>
+      </c>
+      <c r="C80">
+        <v>1687.403198</v>
+      </c>
+      <c r="D80">
+        <v>1606.4210619999999</v>
+      </c>
+      <c r="E80">
+        <v>68.847215000000006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>44</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>47</v>
+      </c>
+      <c r="B85">
+        <v>1325.9516599999999</v>
+      </c>
+      <c r="C85">
+        <v>1794.60376</v>
+      </c>
+      <c r="D85">
+        <v>1701.052316</v>
+      </c>
+      <c r="E85">
+        <v>67.743821999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89" t="s">
+        <v>44</v>
+      </c>
+      <c r="D89" t="s">
+        <v>45</v>
+      </c>
+      <c r="E89" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90">
+        <v>1273.6857910000001</v>
+      </c>
+      <c r="C90">
+        <v>1797.793457</v>
+      </c>
+      <c r="D90">
+        <v>1700.706394</v>
+      </c>
+      <c r="E90">
+        <v>74.935288</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" t="s">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s">
+        <v>45</v>
+      </c>
+      <c r="E94" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95">
+        <v>1402.106812</v>
+      </c>
+      <c r="C95">
+        <v>1782.5704350000001</v>
+      </c>
+      <c r="D95">
+        <v>1705.483289</v>
+      </c>
+      <c r="E95">
+        <v>62.573903999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="B99">
+        <v>2002</v>
+      </c>
+      <c r="C99">
+        <v>2003</v>
+      </c>
+      <c r="D99">
+        <v>2004</v>
+      </c>
+      <c r="E99">
+        <v>2005</v>
+      </c>
+      <c r="F99">
+        <v>2006</v>
+      </c>
+      <c r="G99">
+        <v>2007</v>
+      </c>
+      <c r="H99">
+        <v>2008</v>
+      </c>
+      <c r="I99">
+        <v>2009</v>
+      </c>
+      <c r="J99">
+        <v>2010</v>
+      </c>
+      <c r="K99">
+        <v>2011</v>
+      </c>
+      <c r="L99">
+        <v>2012</v>
+      </c>
+      <c r="M99">
+        <v>2013</v>
+      </c>
+      <c r="N99">
+        <v>2014</v>
+      </c>
+      <c r="O99">
+        <v>2015</v>
+      </c>
+      <c r="P99">
+        <v>2016</v>
+      </c>
+      <c r="Q99">
+        <v>2017</v>
+      </c>
+      <c r="R99">
+        <v>2018</v>
+      </c>
+      <c r="S99">
+        <v>2019</v>
+      </c>
+      <c r="T99">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100" t="s">
+        <v>72</v>
+      </c>
+      <c r="B100">
+        <f>D5</f>
+        <v>1029.9091069999999</v>
+      </c>
+      <c r="C100">
+        <f>D10</f>
+        <v>1251.926741</v>
+      </c>
+      <c r="D100">
+        <f>D15</f>
+        <v>1364.766973</v>
+      </c>
+      <c r="E100">
+        <f>D20</f>
+        <v>971.25907400000006</v>
+      </c>
+      <c r="F100">
+        <f>D25</f>
+        <v>1017.59983</v>
+      </c>
+      <c r="G100">
+        <f>D30</f>
+        <v>982.594022</v>
+      </c>
+      <c r="H100">
+        <f>D35</f>
+        <v>1002.3659259999999</v>
+      </c>
+      <c r="I100">
+        <f>D40</f>
+        <v>1114.6256760000001</v>
+      </c>
+      <c r="J100">
+        <f>D45</f>
+        <v>1763.7311580000001</v>
+      </c>
+      <c r="K100">
+        <f>D50</f>
+        <v>1652.263888</v>
+      </c>
+      <c r="L100">
+        <f>D55</f>
+        <v>1728.4995759999999</v>
+      </c>
+      <c r="M100">
+        <f>D60</f>
+        <v>1733.0221449999999</v>
+      </c>
+      <c r="N100">
+        <f>D65</f>
+        <v>1735.902153</v>
+      </c>
+      <c r="O100">
+        <f>D70</f>
+        <v>1714.1406119999999</v>
+      </c>
+      <c r="P100">
+        <f>D75</f>
+        <v>1765.273862</v>
+      </c>
+      <c r="Q100">
+        <f>D80</f>
+        <v>1606.4210619999999</v>
+      </c>
+      <c r="R100">
+        <f>D85</f>
+        <v>1701.052316</v>
+      </c>
+      <c r="S100">
+        <f>D90</f>
+        <v>1700.706394</v>
+      </c>
+      <c r="T100">
+        <f>D95</f>
+        <v>1705.483289</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>